--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Kato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D6F97E-5BEB-472D-9D37-BD58EEB13EDC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A202A7-44EC-4BCA-A537-C3AA9328F446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6010" yWindow="5650" windowWidth="26690" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -902,15 +902,15 @@
   <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:XFD10"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,22 +921,22 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43887</v>
       </c>
@@ -947,22 +947,22 @@
         <v>508</v>
       </c>
       <c r="D2">
+        <v>141</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
+      </c>
+      <c r="H2">
         <v>62</v>
       </c>
-      <c r="E2">
-        <v>141</v>
-      </c>
-      <c r="F2">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43888</v>
       </c>
@@ -973,22 +973,22 @@
         <v>455</v>
       </c>
       <c r="D3">
+        <v>159</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="H3">
         <v>31</v>
       </c>
-      <c r="E3">
-        <v>159</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43889</v>
       </c>
@@ -999,22 +999,22 @@
         <v>488</v>
       </c>
       <c r="D4">
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>29</v>
+      </c>
+      <c r="H4">
         <v>47</v>
       </c>
-      <c r="E4">
-        <v>155</v>
-      </c>
-      <c r="F4">
-        <v>21</v>
-      </c>
-      <c r="G4">
-        <v>19</v>
-      </c>
-      <c r="H4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43890</v>
       </c>
@@ -1025,22 +1025,22 @@
         <v>490</v>
       </c>
       <c r="D5">
+        <v>171</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>56</v>
       </c>
-      <c r="E5">
-        <v>171</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>23</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43891</v>
       </c>
@@ -1051,22 +1051,22 @@
         <v>530</v>
       </c>
       <c r="D6">
+        <v>169</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
         <v>64</v>
       </c>
-      <c r="E6">
-        <v>169</v>
-      </c>
-      <c r="F6">
-        <v>48</v>
-      </c>
-      <c r="G6">
-        <v>42</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43892</v>
       </c>
@@ -1077,22 +1077,22 @@
         <v>528</v>
       </c>
       <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
+        <v>116</v>
+      </c>
+      <c r="F7">
+        <v>101</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
         <v>81</v>
       </c>
-      <c r="E7">
-        <v>150</v>
-      </c>
-      <c r="F7">
-        <v>116</v>
-      </c>
-      <c r="G7">
-        <v>101</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
@@ -1103,22 +1103,22 @@
         <v>526</v>
       </c>
       <c r="D8">
+        <v>252</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+      <c r="H8">
         <v>57</v>
       </c>
-      <c r="E8">
-        <v>252</v>
-      </c>
-      <c r="F8">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <v>25</v>
-      </c>
-      <c r="H8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43894</v>
       </c>
@@ -1129,22 +1129,22 @@
         <v>527</v>
       </c>
       <c r="D9">
+        <v>206</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>44</v>
+      </c>
+      <c r="H9">
         <v>35</v>
       </c>
-      <c r="E9">
-        <v>206</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43895</v>
       </c>
@@ -1155,22 +1155,22 @@
         <v>496</v>
       </c>
       <c r="D10">
+        <v>122</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>22</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
         <v>53</v>
       </c>
-      <c r="E10">
-        <v>122</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43896</v>
       </c>
@@ -1181,22 +1181,22 @@
         <v>517</v>
       </c>
       <c r="D11">
+        <v>205</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
         <v>44</v>
       </c>
-      <c r="E11">
-        <v>205</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43897</v>
       </c>
@@ -1207,22 +1207,22 @@
         <v>529</v>
       </c>
       <c r="D12">
+        <v>202</v>
+      </c>
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>42</v>
+      </c>
+      <c r="H12">
         <v>55</v>
       </c>
-      <c r="E12">
-        <v>202</v>
-      </c>
-      <c r="F12">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43898</v>
       </c>
@@ -1233,22 +1233,22 @@
         <v>485</v>
       </c>
       <c r="D13">
+        <v>153</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>55</v>
       </c>
-      <c r="E13">
-        <v>153</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>23</v>
-      </c>
-      <c r="H13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
@@ -1259,22 +1259,22 @@
         <v>508</v>
       </c>
       <c r="D14">
+        <v>136</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
         <v>69</v>
       </c>
-      <c r="E14">
-        <v>136</v>
-      </c>
-      <c r="F14">
-        <v>33</v>
-      </c>
-      <c r="G14">
-        <v>29</v>
-      </c>
-      <c r="H14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43900</v>
       </c>
@@ -1285,22 +1285,22 @@
         <v>514</v>
       </c>
       <c r="D15">
+        <v>259</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>32</v>
+      </c>
+      <c r="H15">
         <v>62</v>
       </c>
-      <c r="E15">
-        <v>259</v>
-      </c>
-      <c r="F15">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43901</v>
       </c>
@@ -1311,22 +1311,22 @@
         <v>555</v>
       </c>
       <c r="D16">
+        <v>337</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
+      </c>
+      <c r="H16">
         <v>44</v>
       </c>
-      <c r="E16">
-        <v>337</v>
-      </c>
-      <c r="F16">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43902</v>
       </c>
@@ -1337,22 +1337,22 @@
         <v>529</v>
       </c>
       <c r="D17">
+        <v>218</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>35</v>
+      </c>
+      <c r="H17">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>218</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
@@ -1363,22 +1363,22 @@
         <v>516</v>
       </c>
       <c r="D18">
+        <v>242</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+      <c r="H18">
         <v>35</v>
       </c>
-      <c r="E18">
-        <v>242</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43904</v>
       </c>
@@ -1389,22 +1389,22 @@
         <v>469</v>
       </c>
       <c r="D19">
+        <v>132</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+      <c r="H19">
         <v>21</v>
       </c>
-      <c r="E19">
-        <v>132</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43905</v>
       </c>
@@ -1415,22 +1415,22 @@
         <v>493</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="E20">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43906</v>
       </c>
@@ -1441,22 +1441,22 @@
         <v>518</v>
       </c>
       <c r="D21">
+        <v>171</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
         <v>26</v>
       </c>
-      <c r="E21">
-        <v>171</v>
-      </c>
-      <c r="F21">
-        <v>11</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43907</v>
       </c>
@@ -1467,22 +1467,22 @@
         <v>472</v>
       </c>
       <c r="D22">
+        <v>153</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>31</v>
+      </c>
+      <c r="H22">
         <v>37</v>
       </c>
-      <c r="E22">
-        <v>153</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>16</v>
-      </c>
-      <c r="H22">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43908</v>
       </c>
@@ -1493,22 +1493,22 @@
         <v>472</v>
       </c>
       <c r="D23">
+        <v>167</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
         <v>52</v>
       </c>
-      <c r="E23">
-        <v>167</v>
-      </c>
-      <c r="F23">
-        <v>24</v>
-      </c>
-      <c r="G23">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43909</v>
       </c>
@@ -1519,22 +1519,22 @@
         <v>498</v>
       </c>
       <c r="D24">
+        <v>133</v>
+      </c>
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>43</v>
+      </c>
+      <c r="H24">
         <v>58</v>
       </c>
-      <c r="E24">
-        <v>133</v>
-      </c>
-      <c r="F24">
-        <v>27</v>
-      </c>
-      <c r="G24">
-        <v>24</v>
-      </c>
-      <c r="H24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43910</v>
       </c>
@@ -1545,22 +1545,22 @@
         <v>501</v>
       </c>
       <c r="D25">
+        <v>174</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <v>50</v>
+      </c>
+      <c r="H25">
         <v>69</v>
       </c>
-      <c r="E25">
-        <v>174</v>
-      </c>
-      <c r="F25">
-        <v>39</v>
-      </c>
-      <c r="G25">
-        <v>35</v>
-      </c>
-      <c r="H25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43911</v>
       </c>
@@ -1571,22 +1571,22 @@
         <v>479</v>
       </c>
       <c r="D26">
+        <v>218</v>
+      </c>
+      <c r="E26">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>34</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+      <c r="H26">
         <v>69</v>
       </c>
-      <c r="E26">
-        <v>218</v>
-      </c>
-      <c r="F26">
-        <v>38</v>
-      </c>
-      <c r="G26">
-        <v>34</v>
-      </c>
-      <c r="H26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43912</v>
       </c>
@@ -1597,22 +1597,22 @@
         <v>440</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="E27">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>8</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H27">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43913</v>
       </c>
@@ -1623,22 +1623,22 @@
         <v>433</v>
       </c>
       <c r="D28">
+        <v>182</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>38</v>
+      </c>
+      <c r="H28">
         <v>29</v>
       </c>
-      <c r="E28">
-        <v>182</v>
-      </c>
-      <c r="F28">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>12</v>
-      </c>
-      <c r="H28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43914</v>
       </c>
@@ -1649,22 +1649,22 @@
         <v>443</v>
       </c>
       <c r="D29">
+        <v>158</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29">
         <v>19</v>
       </c>
-      <c r="E29">
-        <v>158</v>
-      </c>
-      <c r="F29">
-        <v>9</v>
-      </c>
-      <c r="G29">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43915</v>
       </c>
@@ -1675,22 +1675,22 @@
         <v>455</v>
       </c>
       <c r="D30">
+        <v>101</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="H30">
         <v>23</v>
       </c>
-      <c r="E30">
-        <v>101</v>
-      </c>
-      <c r="F30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>9</v>
-      </c>
-      <c r="H30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43916</v>
       </c>
@@ -1701,22 +1701,22 @@
         <v>463</v>
       </c>
       <c r="D31">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>32</v>
+      </c>
+      <c r="H31">
         <v>37</v>
       </c>
-      <c r="E31">
-        <v>97</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>15</v>
-      </c>
-      <c r="H31">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43917</v>
       </c>
@@ -1727,22 +1727,22 @@
         <v>449</v>
       </c>
       <c r="D32">
+        <v>95</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>41</v>
+      </c>
+      <c r="H32">
         <v>28</v>
       </c>
-      <c r="E32">
-        <v>95</v>
-      </c>
-      <c r="F32">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43918</v>
       </c>
@@ -1753,22 +1753,22 @@
         <v>463</v>
       </c>
       <c r="D33">
+        <v>88</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>53</v>
+      </c>
+      <c r="H33">
         <v>29</v>
       </c>
-      <c r="E33">
-        <v>88</v>
-      </c>
-      <c r="F33">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>12</v>
-      </c>
-      <c r="H33">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43919</v>
       </c>
@@ -1779,22 +1779,22 @@
         <v>441</v>
       </c>
       <c r="D34">
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>53</v>
+      </c>
+      <c r="H34">
         <v>39</v>
       </c>
-      <c r="E34">
-        <v>90</v>
-      </c>
-      <c r="F34">
-        <v>17</v>
-      </c>
-      <c r="G34">
-        <v>15</v>
-      </c>
-      <c r="H34">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43920</v>
       </c>
@@ -1805,22 +1805,22 @@
         <v>425</v>
       </c>
       <c r="D35">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>21</v>
+      </c>
+      <c r="G35">
+        <v>53</v>
+      </c>
+      <c r="H35">
         <v>51</v>
       </c>
-      <c r="E35">
-        <v>90</v>
-      </c>
-      <c r="F35">
-        <v>23</v>
-      </c>
-      <c r="G35">
-        <v>21</v>
-      </c>
-      <c r="H35">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43921</v>
       </c>
@@ -1831,22 +1831,22 @@
         <v>444</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="E36">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <v>6</v>
       </c>
       <c r="G36">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H36">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43922</v>
       </c>
@@ -1857,22 +1857,22 @@
         <v>400</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="E37">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>6</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43923</v>
       </c>
@@ -1883,22 +1883,22 @@
         <v>429</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E38">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>7</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="H38">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43924</v>
       </c>
@@ -1909,22 +1909,22 @@
         <v>438</v>
       </c>
       <c r="D39">
+        <v>109</v>
+      </c>
+      <c r="E39">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>41</v>
+      </c>
+      <c r="H39">
         <v>38</v>
       </c>
-      <c r="E39">
-        <v>109</v>
-      </c>
-      <c r="F39">
-        <v>17</v>
-      </c>
-      <c r="G39">
-        <v>15</v>
-      </c>
-      <c r="H39">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43925</v>
       </c>
@@ -1935,22 +1935,22 @@
         <v>437</v>
       </c>
       <c r="D40">
+        <v>98</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>42</v>
+      </c>
+      <c r="H40">
         <v>49</v>
       </c>
-      <c r="E40">
-        <v>98</v>
-      </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>22</v>
-      </c>
-      <c r="H40">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43926</v>
       </c>
@@ -1961,22 +1961,22 @@
         <v>445</v>
       </c>
       <c r="D41">
+        <v>102</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
         <v>41</v>
       </c>
-      <c r="E41">
-        <v>102</v>
-      </c>
-      <c r="F41">
-        <v>18</v>
-      </c>
-      <c r="G41">
-        <v>17</v>
-      </c>
-      <c r="H41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43927</v>
       </c>
@@ -1987,22 +1987,22 @@
         <v>446</v>
       </c>
       <c r="D42">
+        <v>105</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>38</v>
+      </c>
+      <c r="H42">
         <v>36</v>
       </c>
-      <c r="E42">
-        <v>105</v>
-      </c>
-      <c r="F42">
-        <v>19</v>
-      </c>
-      <c r="G42">
-        <v>17</v>
-      </c>
-      <c r="H42">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43928</v>
       </c>
@@ -2013,22 +2013,22 @@
         <v>436</v>
       </c>
       <c r="D43">
+        <v>120</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43">
+        <v>50</v>
+      </c>
+      <c r="H43">
         <v>21</v>
       </c>
-      <c r="E43">
-        <v>120</v>
-      </c>
-      <c r="F43">
-        <v>9</v>
-      </c>
-      <c r="G43">
-        <v>8</v>
-      </c>
-      <c r="H43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43929</v>
       </c>
@@ -2039,22 +2039,22 @@
         <v>437</v>
       </c>
       <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>58</v>
+      </c>
+      <c r="H44">
         <v>33</v>
       </c>
-      <c r="E44">
-        <v>100</v>
-      </c>
-      <c r="F44">
-        <v>17</v>
-      </c>
-      <c r="G44">
-        <v>15</v>
-      </c>
-      <c r="H44">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43930</v>
       </c>
@@ -2065,22 +2065,22 @@
         <v>417</v>
       </c>
       <c r="D45">
+        <v>92</v>
+      </c>
+      <c r="E45">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <v>55</v>
+      </c>
+      <c r="H45">
         <v>42</v>
       </c>
-      <c r="E45">
-        <v>92</v>
-      </c>
-      <c r="F45">
-        <v>19</v>
-      </c>
-      <c r="G45">
-        <v>17</v>
-      </c>
-      <c r="H45">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43931</v>
       </c>
@@ -2091,22 +2091,22 @@
         <v>432</v>
       </c>
       <c r="D46">
+        <v>89</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="G46">
+        <v>60</v>
+      </c>
+      <c r="H46">
         <v>45</v>
       </c>
-      <c r="E46">
-        <v>89</v>
-      </c>
-      <c r="F46">
-        <v>20</v>
-      </c>
-      <c r="G46">
-        <v>18</v>
-      </c>
-      <c r="H46">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43932</v>
       </c>
@@ -2117,22 +2117,22 @@
         <v>441</v>
       </c>
       <c r="D47">
+        <v>98</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>70</v>
+      </c>
+      <c r="H47">
         <v>29</v>
       </c>
-      <c r="E47">
-        <v>98</v>
-      </c>
-      <c r="F47">
-        <v>13</v>
-      </c>
-      <c r="G47">
-        <v>12</v>
-      </c>
-      <c r="H47">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43933</v>
       </c>
@@ -2143,22 +2143,22 @@
         <v>437</v>
       </c>
       <c r="D48">
+        <v>78</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>69</v>
+      </c>
+      <c r="H48">
         <v>41</v>
       </c>
-      <c r="E48">
-        <v>78</v>
-      </c>
-      <c r="F48">
-        <v>19</v>
-      </c>
-      <c r="G48">
-        <v>17</v>
-      </c>
-      <c r="H48">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43934</v>
       </c>
@@ -2169,22 +2169,22 @@
         <v>462</v>
       </c>
       <c r="D49">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
+        <v>65</v>
+      </c>
+      <c r="H49">
         <v>31</v>
       </c>
-      <c r="E49">
-        <v>80</v>
-      </c>
-      <c r="F49">
-        <v>14</v>
-      </c>
-      <c r="G49">
-        <v>13</v>
-      </c>
-      <c r="H49">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43935</v>
       </c>
@@ -2195,22 +2195,22 @@
         <v>476</v>
       </c>
       <c r="D50">
+        <v>73</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>18</v>
+      </c>
+      <c r="G50">
+        <v>67</v>
+      </c>
+      <c r="H50">
         <v>44</v>
       </c>
-      <c r="E50">
-        <v>73</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
-      </c>
-      <c r="G50">
-        <v>18</v>
-      </c>
-      <c r="H50">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43936</v>
       </c>
@@ -2221,22 +2221,22 @@
         <v>470</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="E51">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="F51">
         <v>4</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43937</v>
       </c>
@@ -2247,22 +2247,22 @@
         <v>456</v>
       </c>
       <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>52</v>
+      </c>
+      <c r="H52">
         <v>18</v>
       </c>
-      <c r="E52">
-        <v>72</v>
-      </c>
-      <c r="F52">
-        <v>8</v>
-      </c>
-      <c r="G52">
-        <v>7</v>
-      </c>
-      <c r="H52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43938</v>
       </c>
@@ -2273,22 +2273,22 @@
         <v>460</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="E53">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H53">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43939</v>
       </c>
@@ -2299,22 +2299,22 @@
         <v>451</v>
       </c>
       <c r="D54">
+        <v>78</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>49</v>
+      </c>
+      <c r="H54">
         <v>30</v>
       </c>
-      <c r="E54">
-        <v>78</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
-      </c>
-      <c r="G54">
-        <v>12</v>
-      </c>
-      <c r="H54">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43940</v>
       </c>
@@ -2325,22 +2325,22 @@
         <v>443</v>
       </c>
       <c r="D55">
+        <v>75</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>51</v>
+      </c>
+      <c r="H55">
         <v>28</v>
       </c>
-      <c r="E55">
-        <v>75</v>
-      </c>
-      <c r="F55">
-        <v>12</v>
-      </c>
-      <c r="G55">
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43941</v>
       </c>
@@ -2351,22 +2351,22 @@
         <v>438</v>
       </c>
       <c r="D56">
+        <v>93</v>
+      </c>
+      <c r="E56">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>51</v>
+      </c>
+      <c r="H56">
         <v>16</v>
       </c>
-      <c r="E56">
-        <v>93</v>
-      </c>
-      <c r="F56">
-        <v>7</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43942</v>
       </c>
@@ -2377,22 +2377,22 @@
         <v>492</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="H57">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43943</v>
       </c>
@@ -2403,22 +2403,22 @@
         <v>458</v>
       </c>
       <c r="D58">
+        <v>85</v>
+      </c>
+      <c r="E58">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>42</v>
+      </c>
+      <c r="H58">
         <v>26</v>
       </c>
-      <c r="E58">
-        <v>85</v>
-      </c>
-      <c r="F58">
-        <v>11</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43944</v>
       </c>
@@ -2429,22 +2429,22 @@
         <v>450</v>
       </c>
       <c r="D59">
+        <v>96</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59">
+        <v>46</v>
+      </c>
+      <c r="H59">
         <v>23</v>
       </c>
-      <c r="E59">
-        <v>96</v>
-      </c>
-      <c r="F59">
-        <v>10</v>
-      </c>
-      <c r="G59">
-        <v>9</v>
-      </c>
-      <c r="H59">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43945</v>
       </c>
@@ -2455,22 +2455,22 @@
         <v>417</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E60">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F60">
         <v>9</v>
       </c>
       <c r="G60">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="H60">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43946</v>
       </c>
@@ -2481,22 +2481,22 @@
         <v>429</v>
       </c>
       <c r="D61">
+        <v>68</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>49</v>
+      </c>
+      <c r="H61">
         <v>22</v>
       </c>
-      <c r="E61">
-        <v>68</v>
-      </c>
-      <c r="F61">
-        <v>10</v>
-      </c>
-      <c r="G61">
-        <v>9</v>
-      </c>
-      <c r="H61">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43947</v>
       </c>
@@ -2507,22 +2507,22 @@
         <v>433</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E62">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="F62">
         <v>4</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43948</v>
       </c>
@@ -2533,22 +2533,22 @@
         <v>474</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E63">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43949</v>
       </c>
@@ -2559,22 +2559,22 @@
         <v>485</v>
       </c>
       <c r="D64">
+        <v>84</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>65</v>
+      </c>
+      <c r="H64">
         <v>22</v>
       </c>
-      <c r="E64">
-        <v>84</v>
-      </c>
-      <c r="F64">
-        <v>10</v>
-      </c>
-      <c r="G64">
-        <v>9</v>
-      </c>
-      <c r="H64">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43950</v>
       </c>
@@ -2585,22 +2585,22 @@
         <v>473</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E65">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F65">
         <v>8</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="H65">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43951</v>
       </c>
@@ -2611,22 +2611,22 @@
         <v>473</v>
       </c>
       <c r="D66">
+        <v>87</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>69</v>
+      </c>
+      <c r="H66">
         <v>18</v>
       </c>
-      <c r="E66">
-        <v>87</v>
-      </c>
-      <c r="F66">
-        <v>8</v>
-      </c>
-      <c r="G66">
-        <v>7</v>
-      </c>
-      <c r="H66">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43952</v>
       </c>
@@ -2637,22 +2637,22 @@
         <v>472</v>
       </c>
       <c r="D67">
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>56</v>
+      </c>
+      <c r="H67">
         <v>22</v>
       </c>
-      <c r="E67">
-        <v>80</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="G67">
-        <v>9</v>
-      </c>
-      <c r="H67">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43953</v>
       </c>
@@ -2663,22 +2663,22 @@
         <v>491</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="E68">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
       <c r="G68">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="H68">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43954</v>
       </c>
@@ -2689,22 +2689,22 @@
         <v>511</v>
       </c>
       <c r="D69">
+        <v>80</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>44</v>
+      </c>
+      <c r="H69">
         <v>16</v>
       </c>
-      <c r="E69">
-        <v>80</v>
-      </c>
-      <c r="F69">
-        <v>7</v>
-      </c>
-      <c r="G69">
-        <v>6</v>
-      </c>
-      <c r="H69">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43955</v>
       </c>
@@ -2715,22 +2715,22 @@
         <v>530</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="E70">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H70">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43956</v>
       </c>
@@ -2741,22 +2741,22 @@
         <v>514</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E71">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="F71">
         <v>6</v>
       </c>
       <c r="G71">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43957</v>
       </c>
@@ -2767,22 +2767,22 @@
         <v>457</v>
       </c>
       <c r="D72">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E72">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>4</v>
       </c>
       <c r="G72">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43958</v>
       </c>
@@ -2793,22 +2793,22 @@
         <v>459</v>
       </c>
       <c r="D73">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E73">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="G73">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H73">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43959</v>
       </c>
@@ -2819,22 +2819,22 @@
         <v>445</v>
       </c>
       <c r="D74">
+        <v>82</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>32</v>
+      </c>
+      <c r="H74">
         <v>18</v>
       </c>
-      <c r="E74">
-        <v>82</v>
-      </c>
-      <c r="F74">
-        <v>8</v>
-      </c>
-      <c r="G74">
-        <v>7</v>
-      </c>
-      <c r="H74">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43960</v>
       </c>
@@ -2845,22 +2845,22 @@
         <v>465</v>
       </c>
       <c r="D75">
+        <v>78</v>
+      </c>
+      <c r="E75">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>40</v>
+      </c>
+      <c r="H75">
         <v>25</v>
       </c>
-      <c r="E75">
-        <v>78</v>
-      </c>
-      <c r="F75">
-        <v>11</v>
-      </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
-      <c r="H75">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43961</v>
       </c>
@@ -2871,22 +2871,22 @@
         <v>471</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E76">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="F76">
         <v>10</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="H76">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43962</v>
       </c>
@@ -2897,22 +2897,22 @@
         <v>457</v>
       </c>
       <c r="D77">
+        <v>87</v>
+      </c>
+      <c r="E77">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>47</v>
+      </c>
+      <c r="H77">
         <v>21</v>
       </c>
-      <c r="E77">
-        <v>87</v>
-      </c>
-      <c r="F77">
-        <v>9</v>
-      </c>
-      <c r="G77">
-        <v>8</v>
-      </c>
-      <c r="H77">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43963</v>
       </c>
@@ -2923,22 +2923,22 @@
         <v>443</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="E78">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="G78">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H78">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43964</v>
       </c>
@@ -2949,22 +2949,22 @@
         <v>473</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E79">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="F79">
         <v>4</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="H79">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43965</v>
       </c>
@@ -2975,22 +2975,22 @@
         <v>465</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="E80">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="H80">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43966</v>
       </c>
@@ -3001,22 +3001,22 @@
         <v>463</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E81">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F81">
         <v>31</v>
       </c>
       <c r="G81">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H81">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43967</v>
       </c>
@@ -3027,22 +3027,22 @@
         <v>472</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E82">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="F82">
         <v>7</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43968</v>
       </c>
@@ -3053,22 +3053,22 @@
         <v>470</v>
       </c>
       <c r="D83">
+        <v>101</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83">
+        <v>55</v>
+      </c>
+      <c r="H83">
         <v>21</v>
       </c>
-      <c r="E83">
-        <v>101</v>
-      </c>
-      <c r="F83">
-        <v>9</v>
-      </c>
-      <c r="G83">
-        <v>8</v>
-      </c>
-      <c r="H83">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43969</v>
       </c>
@@ -3079,22 +3079,22 @@
         <v>469</v>
       </c>
       <c r="D84">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E84">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="F84">
         <v>8</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="H84">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43970</v>
       </c>
@@ -3105,22 +3105,22 @@
         <v>486</v>
       </c>
       <c r="D85">
+        <v>106</v>
+      </c>
+      <c r="E85">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+      <c r="G85">
+        <v>54</v>
+      </c>
+      <c r="H85">
         <v>31</v>
       </c>
-      <c r="E85">
-        <v>106</v>
-      </c>
-      <c r="F85">
-        <v>14</v>
-      </c>
-      <c r="G85">
-        <v>12</v>
-      </c>
-      <c r="H85">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43971</v>
       </c>
@@ -3131,22 +3131,22 @@
         <v>458</v>
       </c>
       <c r="D86">
+        <v>93</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>50</v>
+      </c>
+      <c r="H86">
         <v>26</v>
       </c>
-      <c r="E86">
-        <v>93</v>
-      </c>
-      <c r="F86">
-        <v>12</v>
-      </c>
-      <c r="G86">
-        <v>11</v>
-      </c>
-      <c r="H86">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43972</v>
       </c>
@@ -3157,22 +3157,22 @@
         <v>508</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="E87">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="H87">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43973</v>
       </c>
@@ -3183,22 +3183,22 @@
         <v>493</v>
       </c>
       <c r="D88">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E88">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F88">
         <v>4</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43974</v>
       </c>
@@ -3209,22 +3209,22 @@
         <v>478</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E89">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="F89">
         <v>5</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H89">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43975</v>
       </c>
@@ -3235,22 +3235,22 @@
         <v>463</v>
       </c>
       <c r="D90">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>47</v>
+      </c>
+      <c r="H90">
         <v>16</v>
       </c>
-      <c r="E90">
-        <v>89</v>
-      </c>
-      <c r="F90">
-        <v>7</v>
-      </c>
-      <c r="G90">
-        <v>6</v>
-      </c>
-      <c r="H90">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43976</v>
       </c>
@@ -3261,22 +3261,22 @@
         <v>483</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="E91">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="G91">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43977</v>
       </c>
@@ -3287,22 +3287,22 @@
         <v>481</v>
       </c>
       <c r="D92">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="E92">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="F92">
         <v>7</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="H92">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43978</v>
       </c>
@@ -3313,22 +3313,22 @@
         <v>478</v>
       </c>
       <c r="D93">
+        <v>77</v>
+      </c>
+      <c r="E93">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
+      <c r="G93">
+        <v>33</v>
+      </c>
+      <c r="H93">
         <v>15</v>
       </c>
-      <c r="E93">
-        <v>77</v>
-      </c>
-      <c r="F93">
-        <v>7</v>
-      </c>
-      <c r="G93">
-        <v>6</v>
-      </c>
-      <c r="H93">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43979</v>
       </c>
@@ -3339,22 +3339,22 @@
         <v>160</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="E94">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H94">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43980</v>
       </c>
@@ -3365,22 +3365,22 @@
         <v>163</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="E95">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <v>2</v>
       </c>
       <c r="G95">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H95">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43981</v>
       </c>
@@ -3391,22 +3391,22 @@
         <v>170</v>
       </c>
       <c r="D96">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="E96">
-        <v>179</v>
+        <v>3</v>
       </c>
       <c r="F96">
         <v>3</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43982</v>
       </c>
@@ -3417,22 +3417,22 @@
         <v>165</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E97">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H97">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43983</v>
       </c>
@@ -3443,22 +3443,22 @@
         <v>163</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="E98">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>2</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43984</v>
       </c>
@@ -3469,22 +3469,22 @@
         <v>299</v>
       </c>
       <c r="D99">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="E99">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H99">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43985</v>
       </c>
@@ -3495,22 +3495,22 @@
         <v>421</v>
       </c>
       <c r="D100">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="E100">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="F100">
         <v>5</v>
       </c>
       <c r="G100">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43986</v>
       </c>
@@ -3521,22 +3521,22 @@
         <v>384</v>
       </c>
       <c r="D101">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="E101">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43987</v>
       </c>
@@ -3547,22 +3547,22 @@
         <v>438</v>
       </c>
       <c r="D102">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="E102">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="F102">
         <v>7</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="H102">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43988</v>
       </c>
@@ -3573,22 +3573,22 @@
         <v>427</v>
       </c>
       <c r="D103">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="E103">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="F103">
         <v>7</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H103">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43989</v>
       </c>
@@ -3599,22 +3599,22 @@
         <v>420</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="E104">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="F104">
         <v>6</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43990</v>
       </c>
@@ -3625,22 +3625,22 @@
         <v>446</v>
       </c>
       <c r="D105">
+        <v>202</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>44</v>
+      </c>
+      <c r="H105">
         <v>25</v>
       </c>
-      <c r="E105">
-        <v>202</v>
-      </c>
-      <c r="F105">
-        <v>11</v>
-      </c>
-      <c r="G105">
-        <v>10</v>
-      </c>
-      <c r="H105">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43991</v>
       </c>
@@ -3651,22 +3651,22 @@
         <v>462</v>
       </c>
       <c r="D106">
+        <v>154</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106">
+        <v>53</v>
+      </c>
+      <c r="H106">
         <v>29</v>
       </c>
-      <c r="E106">
-        <v>154</v>
-      </c>
-      <c r="F106">
-        <v>13</v>
-      </c>
-      <c r="G106">
-        <v>12</v>
-      </c>
-      <c r="H106">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43992</v>
       </c>
@@ -3677,22 +3677,22 @@
         <v>436</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E107">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="F107">
         <v>8</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="H107">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43993</v>
       </c>
@@ -3703,22 +3703,22 @@
         <v>443</v>
       </c>
       <c r="D108">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="E108">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="F108">
         <v>7</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43994</v>
       </c>
@@ -3729,22 +3729,22 @@
         <v>451</v>
       </c>
       <c r="D109">
+        <v>133</v>
+      </c>
+      <c r="E109">
+        <v>9</v>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109">
+        <v>46</v>
+      </c>
+      <c r="H109">
         <v>20</v>
       </c>
-      <c r="E109">
-        <v>133</v>
-      </c>
-      <c r="F109">
-        <v>9</v>
-      </c>
-      <c r="G109">
-        <v>8</v>
-      </c>
-      <c r="H109">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43995</v>
       </c>
@@ -3755,22 +3755,22 @@
         <v>446</v>
       </c>
       <c r="D110">
+        <v>148</v>
+      </c>
+      <c r="E110">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110">
+        <v>48</v>
+      </c>
+      <c r="H110">
         <v>20</v>
       </c>
-      <c r="E110">
-        <v>148</v>
-      </c>
-      <c r="F110">
-        <v>14</v>
-      </c>
-      <c r="G110">
-        <v>13</v>
-      </c>
-      <c r="H110">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43996</v>
       </c>
@@ -3781,22 +3781,22 @@
         <v>435</v>
       </c>
       <c r="D111">
+        <v>159</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
+      </c>
+      <c r="F111">
+        <v>12</v>
+      </c>
+      <c r="G111">
+        <v>45</v>
+      </c>
+      <c r="H111">
         <v>26</v>
       </c>
-      <c r="E111">
-        <v>159</v>
-      </c>
-      <c r="F111">
-        <v>13</v>
-      </c>
-      <c r="G111">
-        <v>12</v>
-      </c>
-      <c r="H111">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43997</v>
       </c>
@@ -3807,22 +3807,22 @@
         <v>452</v>
       </c>
       <c r="D112">
+        <v>152</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112">
+        <v>34</v>
+      </c>
+      <c r="H112">
         <v>31</v>
       </c>
-      <c r="E112">
-        <v>152</v>
-      </c>
-      <c r="F112">
-        <v>13</v>
-      </c>
-      <c r="G112">
-        <v>12</v>
-      </c>
-      <c r="H112">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43998</v>
       </c>
@@ -3833,22 +3833,22 @@
         <v>441</v>
       </c>
       <c r="D113">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="E113">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="F113">
         <v>9</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43999</v>
       </c>
@@ -3859,22 +3859,22 @@
         <v>482</v>
       </c>
       <c r="D114">
+        <v>120</v>
+      </c>
+      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114">
+        <v>37</v>
+      </c>
+      <c r="H114">
         <v>23</v>
       </c>
-      <c r="E114">
-        <v>120</v>
-      </c>
-      <c r="F114">
-        <v>10</v>
-      </c>
-      <c r="G114">
-        <v>9</v>
-      </c>
-      <c r="H114">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44000</v>
       </c>
@@ -3885,22 +3885,22 @@
         <v>487</v>
       </c>
       <c r="D115">
+        <v>132</v>
+      </c>
+      <c r="E115">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <v>43</v>
+      </c>
+      <c r="H115">
         <v>37</v>
       </c>
-      <c r="E115">
-        <v>132</v>
-      </c>
-      <c r="F115">
-        <v>16</v>
-      </c>
-      <c r="G115">
-        <v>15</v>
-      </c>
-      <c r="H115">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44001</v>
       </c>
@@ -3911,22 +3911,22 @@
         <v>456</v>
       </c>
       <c r="D116">
+        <v>142</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>9</v>
+      </c>
+      <c r="G116">
+        <v>38</v>
+      </c>
+      <c r="H116">
         <v>23</v>
       </c>
-      <c r="E116">
-        <v>142</v>
-      </c>
-      <c r="F116">
-        <v>10</v>
-      </c>
-      <c r="G116">
-        <v>9</v>
-      </c>
-      <c r="H116">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44002</v>
       </c>
@@ -3937,22 +3937,22 @@
         <v>488</v>
       </c>
       <c r="D117">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="E117">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F117">
         <v>4</v>
       </c>
       <c r="G117">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="H117">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44003</v>
       </c>
@@ -3963,22 +3963,22 @@
         <v>476</v>
       </c>
       <c r="D118">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="E118">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="F118">
         <v>6</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="H118">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44004</v>
       </c>
@@ -3989,22 +3989,22 @@
         <v>494</v>
       </c>
       <c r="D119">
+        <v>196</v>
+      </c>
+      <c r="E119">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <v>43</v>
+      </c>
+      <c r="H119">
         <v>18</v>
       </c>
-      <c r="E119">
-        <v>196</v>
-      </c>
-      <c r="F119">
-        <v>8</v>
-      </c>
-      <c r="G119">
-        <v>7</v>
-      </c>
-      <c r="H119">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44005</v>
       </c>
@@ -4015,22 +4015,22 @@
         <v>528</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="E120">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="F120">
         <v>6</v>
       </c>
       <c r="G120">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44006</v>
       </c>
@@ -4041,22 +4041,22 @@
         <v>535</v>
       </c>
       <c r="D121">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="E121">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="F121">
         <v>9</v>
       </c>
       <c r="G121">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H121">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44007</v>
       </c>
@@ -4067,22 +4067,22 @@
         <v>506</v>
       </c>
       <c r="D122">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="E122">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="F122">
         <v>7</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H122">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44008</v>
       </c>
@@ -4093,22 +4093,22 @@
         <v>511</v>
       </c>
       <c r="D123">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="E123">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="F123">
         <v>8</v>
       </c>
       <c r="G123">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="H123">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44009</v>
       </c>
@@ -4119,22 +4119,22 @@
         <v>503</v>
       </c>
       <c r="D124">
+        <v>250</v>
+      </c>
+      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>9</v>
+      </c>
+      <c r="G124">
+        <v>61</v>
+      </c>
+      <c r="H124">
         <v>23</v>
       </c>
-      <c r="E124">
-        <v>250</v>
-      </c>
-      <c r="F124">
-        <v>10</v>
-      </c>
-      <c r="G124">
-        <v>9</v>
-      </c>
-      <c r="H124">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44010</v>
       </c>
@@ -4145,22 +4145,22 @@
         <v>471</v>
       </c>
       <c r="D125">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="E125">
-        <v>247</v>
+        <v>8</v>
       </c>
       <c r="F125">
         <v>8</v>
       </c>
       <c r="G125">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H125">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44011</v>
       </c>
@@ -4171,22 +4171,22 @@
         <v>461</v>
       </c>
       <c r="D126">
+        <v>189</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126">
+        <v>64</v>
+      </c>
+      <c r="H126">
         <v>32</v>
       </c>
-      <c r="E126">
-        <v>189</v>
-      </c>
-      <c r="F126">
-        <v>14</v>
-      </c>
-      <c r="G126">
-        <v>13</v>
-      </c>
-      <c r="H126">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44012</v>
       </c>
@@ -4197,22 +4197,22 @@
         <v>459</v>
       </c>
       <c r="D127">
+        <v>185</v>
+      </c>
+      <c r="E127">
+        <v>14</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127">
+        <v>54</v>
+      </c>
+      <c r="H127">
         <v>31</v>
       </c>
-      <c r="E127">
-        <v>185</v>
-      </c>
-      <c r="F127">
-        <v>14</v>
-      </c>
-      <c r="G127">
-        <v>13</v>
-      </c>
-      <c r="H127">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44013</v>
       </c>
@@ -4223,22 +4223,22 @@
         <v>468</v>
       </c>
       <c r="D128">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="E128">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="F128">
         <v>7</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H128">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44014</v>
       </c>
@@ -4249,22 +4249,22 @@
         <v>481</v>
       </c>
       <c r="D129">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="E129">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="F129">
         <v>7</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="H129">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44015</v>
       </c>
@@ -4275,22 +4275,22 @@
         <v>505</v>
       </c>
       <c r="D130">
+        <v>197</v>
+      </c>
+      <c r="E130">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>61</v>
+      </c>
+      <c r="H130">
         <v>16</v>
       </c>
-      <c r="E130">
-        <v>197</v>
-      </c>
-      <c r="F130">
-        <v>7</v>
-      </c>
-      <c r="G130">
-        <v>6</v>
-      </c>
-      <c r="H130">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44016</v>
       </c>
@@ -4301,22 +4301,22 @@
         <v>486</v>
       </c>
       <c r="D131">
+        <v>186</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
+        <v>77</v>
+      </c>
+      <c r="H131">
         <v>25</v>
       </c>
-      <c r="E131">
-        <v>186</v>
-      </c>
-      <c r="F131">
-        <v>11</v>
-      </c>
-      <c r="G131">
-        <v>10</v>
-      </c>
-      <c r="H131">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44017</v>
       </c>
@@ -4327,22 +4327,22 @@
         <v>483</v>
       </c>
       <c r="D132">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="E132">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="F132">
         <v>7</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="H132">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44018</v>
       </c>
@@ -4353,22 +4353,22 @@
         <v>517</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="E133">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="F133">
         <v>6</v>
       </c>
       <c r="G133">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H133">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44019</v>
       </c>
@@ -4379,22 +4379,22 @@
         <v>554</v>
       </c>
       <c r="D134">
+        <v>167</v>
+      </c>
+      <c r="E134">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134">
+        <v>47</v>
+      </c>
+      <c r="H134">
         <v>16</v>
       </c>
-      <c r="E134">
-        <v>167</v>
-      </c>
-      <c r="F134">
-        <v>7</v>
-      </c>
-      <c r="G134">
-        <v>6</v>
-      </c>
-      <c r="H134">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44020</v>
       </c>
@@ -4405,22 +4405,22 @@
         <v>550</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="E135">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="F135">
         <v>3</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44021</v>
       </c>
@@ -4431,22 +4431,22 @@
         <v>526</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="E136">
-        <v>230</v>
+        <v>5</v>
       </c>
       <c r="F136">
         <v>5</v>
       </c>
       <c r="G136">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="H136">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44022</v>
       </c>
@@ -4457,22 +4457,22 @@
         <v>536</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>222</v>
       </c>
       <c r="E137">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="F137">
         <v>4</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H137">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44023</v>
       </c>
@@ -4483,22 +4483,22 @@
         <v>537</v>
       </c>
       <c r="D138">
-        <v>10</v>
+        <v>227</v>
       </c>
       <c r="E138">
-        <v>227</v>
+        <v>4</v>
       </c>
       <c r="F138">
         <v>4</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="H138">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44024</v>
       </c>
@@ -4509,22 +4509,22 @@
         <v>529</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="E139">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="F139">
         <v>6</v>
       </c>
       <c r="G139">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="H139">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44025</v>
       </c>
@@ -4535,22 +4535,22 @@
         <v>562</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E140">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="F140">
         <v>3</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H140">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44026</v>
       </c>
@@ -4561,22 +4561,22 @@
         <v>554</v>
       </c>
       <c r="D141">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="E141">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="F141">
         <v>4</v>
       </c>
       <c r="G141">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H141">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44027</v>
       </c>
@@ -4587,22 +4587,22 @@
         <v>548</v>
       </c>
       <c r="D142">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="E142">
-        <v>231</v>
+        <v>5</v>
       </c>
       <c r="F142">
         <v>5</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="H142">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44028</v>
       </c>
@@ -4613,22 +4613,22 @@
         <v>545</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>237</v>
       </c>
       <c r="E143">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="F143">
         <v>6</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H143">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44029</v>
       </c>
@@ -4639,22 +4639,22 @@
         <v>534</v>
       </c>
       <c r="D144">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="E144">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="F144">
         <v>7</v>
       </c>
       <c r="G144">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="H144">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44030</v>
       </c>
@@ -4665,22 +4665,22 @@
         <v>534</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="E145">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="F145">
         <v>6</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="H145">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44031</v>
       </c>
@@ -4691,22 +4691,22 @@
         <v>544</v>
       </c>
       <c r="D146">
+        <v>264</v>
+      </c>
+      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <v>9</v>
+      </c>
+      <c r="G146">
+        <v>53</v>
+      </c>
+      <c r="H146">
         <v>23</v>
       </c>
-      <c r="E146">
-        <v>264</v>
-      </c>
-      <c r="F146">
-        <v>10</v>
-      </c>
-      <c r="G146">
-        <v>9</v>
-      </c>
-      <c r="H146">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44032</v>
       </c>
@@ -4717,22 +4717,22 @@
         <v>424</v>
       </c>
       <c r="D147">
+        <v>152</v>
+      </c>
+      <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="F147">
+        <v>7</v>
+      </c>
+      <c r="G147">
+        <v>36</v>
+      </c>
+      <c r="H147">
         <v>18</v>
       </c>
-      <c r="E147">
-        <v>152</v>
-      </c>
-      <c r="F147">
-        <v>8</v>
-      </c>
-      <c r="G147">
-        <v>7</v>
-      </c>
-      <c r="H147">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44033</v>
       </c>
@@ -4743,22 +4743,22 @@
         <v>431</v>
       </c>
       <c r="D148">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c r="E148">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="F148">
         <v>6</v>
       </c>
       <c r="G148">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="H148">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44034</v>
       </c>
@@ -4769,22 +4769,22 @@
         <v>400</v>
       </c>
       <c r="D149">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="E149">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="F149">
         <v>6</v>
       </c>
       <c r="G149">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H149">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44035</v>
       </c>
@@ -4795,22 +4795,22 @@
         <v>414</v>
       </c>
       <c r="D150">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="E150">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H150">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44036</v>
       </c>
@@ -4821,22 +4821,22 @@
         <v>438</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E151">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="F151">
         <v>6</v>
       </c>
       <c r="G151">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H151">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44037</v>
       </c>
@@ -4847,22 +4847,22 @@
         <v>394</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="E152">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="F152">
         <v>4</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H152">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44038</v>
       </c>
@@ -4873,22 +4873,22 @@
         <v>394</v>
       </c>
       <c r="D153">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="E153">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="F153">
         <v>6</v>
       </c>
       <c r="G153">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H153">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44039</v>
       </c>
@@ -4899,22 +4899,22 @@
         <v>389</v>
       </c>
       <c r="D154">
+        <v>205</v>
+      </c>
+      <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154">
+        <v>8</v>
+      </c>
+      <c r="G154">
+        <v>40</v>
+      </c>
+      <c r="H154">
         <v>20</v>
       </c>
-      <c r="E154">
-        <v>205</v>
-      </c>
-      <c r="F154">
-        <v>9</v>
-      </c>
-      <c r="G154">
-        <v>8</v>
-      </c>
-      <c r="H154">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44040</v>
       </c>
@@ -4925,22 +4925,22 @@
         <v>413</v>
       </c>
       <c r="D155">
+        <v>199</v>
+      </c>
+      <c r="E155">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>7</v>
+      </c>
+      <c r="G155">
+        <v>36</v>
+      </c>
+      <c r="H155">
         <v>19</v>
       </c>
-      <c r="E155">
-        <v>199</v>
-      </c>
-      <c r="F155">
-        <v>8</v>
-      </c>
-      <c r="G155">
-        <v>7</v>
-      </c>
-      <c r="H155">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44041</v>
       </c>
@@ -4951,19 +4951,19 @@
         <v>389</v>
       </c>
       <c r="D156">
+        <v>193</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+      <c r="F156">
+        <v>7</v>
+      </c>
+      <c r="G156">
+        <v>36</v>
+      </c>
+      <c r="H156">
         <v>17</v>
-      </c>
-      <c r="E156">
-        <v>193</v>
-      </c>
-      <c r="F156">
-        <v>8</v>
-      </c>
-      <c r="G156">
-        <v>7</v>
-      </c>
-      <c r="H156">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A202A7-44EC-4BCA-A537-C3AA9328F446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C401DE-DFE0-4EC6-908E-518CC48C9176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14088" yWindow="432" windowWidth="12588" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4951,7 +4951,7 @@
         <v>389</v>
       </c>
       <c r="D156">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E156">
         <v>8</v>
@@ -4964,6 +4964,136 @@
       </c>
       <c r="H156">
         <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B157" s="2">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>402</v>
+      </c>
+      <c r="D157">
+        <v>199</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="G157">
+        <v>32</v>
+      </c>
+      <c r="H157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B158" s="2">
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <v>398</v>
+      </c>
+      <c r="D158">
+        <v>186</v>
+      </c>
+      <c r="E158">
+        <v>7</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+      <c r="G158">
+        <v>37</v>
+      </c>
+      <c r="H158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B159" s="2">
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <v>395</v>
+      </c>
+      <c r="D159">
+        <v>244</v>
+      </c>
+      <c r="E159">
+        <v>6</v>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>39</v>
+      </c>
+      <c r="H159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B160" s="2">
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <v>425</v>
+      </c>
+      <c r="D160">
+        <v>226</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="G160">
+        <v>34</v>
+      </c>
+      <c r="H160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B161" s="2">
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <v>388</v>
+      </c>
+      <c r="D161">
+        <v>275</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>34</v>
+      </c>
+      <c r="H161">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C401DE-DFE0-4EC6-908E-518CC48C9176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2842D2D-8D24-48A5-9E47-E93DDCAAA0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14088" yWindow="432" windowWidth="12588" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11916" yWindow="924" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -899,15 +899,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
       <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -5090,9 +5091,165 @@
         <v>3</v>
       </c>
       <c r="G161">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B162" s="2">
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <v>362</v>
+      </c>
+      <c r="D162">
+        <v>111</v>
+      </c>
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>29</v>
+      </c>
+      <c r="H162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B163" s="2">
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <v>365</v>
+      </c>
+      <c r="D163">
+        <v>106</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>30</v>
+      </c>
+      <c r="H163">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B164" s="2">
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <v>374</v>
+      </c>
+      <c r="D164">
+        <v>110</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="G164">
+        <v>31</v>
+      </c>
+      <c r="H164">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B165" s="2">
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <v>388</v>
+      </c>
+      <c r="D165">
+        <v>107</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165">
+        <v>29</v>
+      </c>
+      <c r="H165">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B166" s="2">
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <v>365</v>
+      </c>
+      <c r="D166">
+        <v>115</v>
+      </c>
+      <c r="E166">
+        <v>6</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166">
+        <v>28</v>
+      </c>
+      <c r="H166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B167" s="2">
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <v>419</v>
+      </c>
+      <c r="D167">
+        <v>109</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>43</v>
+      </c>
+      <c r="H167">
         <v>8</v>
       </c>
     </row>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2842D2D-8D24-48A5-9E47-E93DDCAAA0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFFE57-A507-4EB0-B387-B4971AEAA4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11916" yWindow="924" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9432" yWindow="732" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H161" sqref="H161"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="H168" sqref="H168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5253,6 +5253,32 @@
         <v>8</v>
       </c>
     </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B168" s="2">
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <v>444</v>
+      </c>
+      <c r="D168">
+        <v>112</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
+        <v>51</v>
+      </c>
+      <c r="H168">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FFFE57-A507-4EB0-B387-B4971AEAA4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A3EF7-CBC0-41B5-9D1A-01F5BB783B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9432" yWindow="732" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13584" yWindow="936" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H168" sqref="H168"/>
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5279,6 +5279,58 @@
         <v>10</v>
       </c>
     </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B169" s="2">
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <v>416</v>
+      </c>
+      <c r="D169">
+        <v>130</v>
+      </c>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169">
+        <v>44</v>
+      </c>
+      <c r="H169">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B170" s="2">
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <v>399</v>
+      </c>
+      <c r="D170">
+        <v>108</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170">
+        <v>36</v>
+      </c>
+      <c r="H170">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143A3EF7-CBC0-41B5-9D1A-01F5BB783B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E9912-E36C-4B39-86D1-167EB31EC7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13584" yWindow="936" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12348" yWindow="708" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H171" sqref="H171"/>
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5331,6 +5331,84 @@
         <v>13</v>
       </c>
     </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B171" s="2">
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <v>437</v>
+      </c>
+      <c r="D171">
+        <v>107</v>
+      </c>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>40</v>
+      </c>
+      <c r="H171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B172" s="2">
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <v>420</v>
+      </c>
+      <c r="D172">
+        <v>111</v>
+      </c>
+      <c r="E172">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172">
+        <v>38</v>
+      </c>
+      <c r="H172">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B173" s="2">
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <v>408</v>
+      </c>
+      <c r="D173">
+        <v>102</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>42</v>
+      </c>
+      <c r="H173">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E9912-E36C-4B39-86D1-167EB31EC7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9E3A9-39B6-4B81-8EF0-D1EFACB0EDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="708" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10548" yWindow="564" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -899,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5394,7 +5394,7 @@
         <v>408</v>
       </c>
       <c r="D173">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -5406,7 +5406,85 @@
         <v>42</v>
       </c>
       <c r="H173">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B174" s="2">
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <v>439</v>
+      </c>
+      <c r="D174">
+        <v>109</v>
+      </c>
+      <c r="E174">
+        <v>4</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174">
+        <v>36</v>
+      </c>
+      <c r="H174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B175" s="2">
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <v>424</v>
+      </c>
+      <c r="D175">
+        <v>105</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175">
+        <v>42</v>
+      </c>
+      <c r="H175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B176" s="2">
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <v>416</v>
+      </c>
+      <c r="D176">
+        <v>108</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176">
+        <v>30</v>
+      </c>
+      <c r="H176">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D9E3A9-39B6-4B81-8EF0-D1EFACB0EDEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC77C6-A707-4C2F-93CF-F95650117C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10548" yWindow="564" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="264" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -536,13 +536,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -899,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,4580 +921,4688 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>43887</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>508</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>141</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>31</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>28</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>37</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>43888</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>455</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>159</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>32</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>43889</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>488</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>155</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>29</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>43890</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>490</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>171</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>25</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>23</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>32</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>43891</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>530</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>169</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>48</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>42</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>34</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>43892</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>528</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>150</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>116</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>101</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>43893</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>526</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>252</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>28</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>25</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>43894</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>527</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>206</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>44</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>43895</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>496</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>122</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>22</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>35</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>43896</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>517</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>205</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>18</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>30</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>43897</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>529</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>202</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>25</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>42</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>43898</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>485</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>153</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>23</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>33</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>43899</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>508</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>136</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>33</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>29</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>36</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>43900</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>514</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>259</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>28</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>32</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>43901</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>555</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>337</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>19</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>17</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>22</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>43902</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>529</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>218</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>18</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>35</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>43903</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>516</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>242</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>16</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>14</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>34</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>43904</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>469</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>132</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>32</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>43905</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>493</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>156</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>5</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>5</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>25</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>43906</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>518</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>171</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>10</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>25</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>43907</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <v>472</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>153</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>17</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>16</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="5">
         <v>31</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>43908</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>472</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>167</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>24</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>22</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>31</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>43909</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>498</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>133</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>27</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>24</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>43</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>43910</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>501</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <v>174</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>39</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>35</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>50</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>43911</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>479</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>218</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>38</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>34</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>60</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>43912</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>440</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>152</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>8</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="5">
         <v>41</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>43913</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>433</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>182</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>13</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>12</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>38</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>43914</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>443</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>158</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>9</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>8</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <v>30</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="3">
         <v>43915</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>455</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>101</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>10</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>9</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>27</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="3">
         <v>43916</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="4">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <v>463</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>97</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>25</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>15</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>32</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="3">
         <v>43917</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="4">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>449</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>95</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>14</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <v>41</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="3">
         <v>43918</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="4">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>463</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>88</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>13</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>12</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="5">
         <v>53</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="3">
         <v>43919</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="4">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>441</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>90</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>17</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>15</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="5">
         <v>53</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="3">
         <v>43920</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="4">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <v>425</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>90</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>23</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>21</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="5">
         <v>53</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="3">
         <v>43921</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="4">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>444</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>130</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>6</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>6</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="5">
         <v>53</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="3">
         <v>43922</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="4">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>400</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>97</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>6</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <v>6</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="5">
         <v>50</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>43923</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="4">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>429</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>113</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>7</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <v>7</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="5">
         <v>49</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="3">
         <v>43924</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="4">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <v>438</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>109</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>17</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>15</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="5">
         <v>41</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="3">
         <v>43925</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="4">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <v>437</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="5">
         <v>98</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="5">
         <v>25</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <v>22</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="5">
         <v>42</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>43926</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>445</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>102</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>18</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>17</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="5">
         <v>39</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="3">
         <v>43927</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>446</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>105</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>19</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <v>17</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="5">
         <v>38</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>43928</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>436</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>120</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>9</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <v>8</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="5">
         <v>50</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="3">
         <v>43929</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>437</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>100</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>17</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>15</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="5">
         <v>58</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="3">
         <v>43930</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>417</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>92</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>19</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>17</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="5">
         <v>55</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="3">
         <v>43931</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>432</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>89</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>20</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>18</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <v>60</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="3">
         <v>43932</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="4">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>441</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>98</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>13</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>12</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <v>70</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="3">
         <v>43933</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="4">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <v>437</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>78</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>19</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <v>17</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="5">
         <v>69</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="3">
         <v>43934</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="4">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>462</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>80</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="5">
         <v>14</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="5">
         <v>13</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="5">
         <v>65</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="3">
         <v>43935</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="4">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <v>476</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="5">
         <v>73</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="5">
         <v>20</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="5">
         <v>18</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="5">
         <v>67</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="5">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="3">
         <v>43936</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="4">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>470</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>94</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>4</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>4</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="5">
         <v>50</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="3">
         <v>43937</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="4">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="5">
         <v>456</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>72</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>8</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>7</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="5">
         <v>52</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="3">
         <v>43938</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="4">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="5">
         <v>460</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="5">
         <v>75</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>10</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="5">
         <v>10</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="5">
         <v>62</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="3">
         <v>43939</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="4">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>451</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>78</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>13</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>12</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="5">
         <v>49</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="3">
         <v>43940</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="4">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>443</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <v>75</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="5">
         <v>12</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>11</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="5">
         <v>51</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="3">
         <v>43941</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="4">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>438</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>93</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>7</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="5">
         <v>6</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="5">
         <v>51</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="3">
         <v>43942</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="4">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>492</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>90</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="5">
         <v>8</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>8</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="5">
         <v>41</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="3">
         <v>43943</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="4">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="5">
         <v>458</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="5">
         <v>85</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="5">
         <v>11</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>10</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="5">
         <v>42</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="3">
         <v>43944</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="4">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>450</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="5">
         <v>96</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="5">
         <v>10</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>9</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="5">
         <v>46</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="3">
         <v>43945</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="4">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="5">
         <v>417</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="5">
         <v>76</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <v>9</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>9</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="5">
         <v>47</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="3">
         <v>43946</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="4">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>429</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <v>68</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="5">
         <v>10</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>9</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="5">
         <v>49</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="3">
         <v>43947</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="4">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>433</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="5">
         <v>70</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="5">
         <v>4</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="5">
         <v>4</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="5">
         <v>60</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="3">
         <v>43948</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="4">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>474</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="5">
         <v>79</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="5">
         <v>5</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="5">
         <v>5</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="5">
         <v>63</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="3">
         <v>43949</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="4">
         <v>63</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>485</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <v>84</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="5">
         <v>10</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="5">
         <v>9</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="5">
         <v>65</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="3">
         <v>43950</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="4">
         <v>64</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>473</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5">
         <v>77</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="5">
         <v>8</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="5">
         <v>8</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="5">
         <v>57</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="3">
         <v>43951</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="4">
         <v>65</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="5">
         <v>473</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="5">
         <v>87</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="5">
         <v>8</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="5">
         <v>7</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="5">
         <v>69</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="3">
         <v>43952</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="4">
         <v>66</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="5">
         <v>472</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="5">
         <v>80</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="5">
         <v>10</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="5">
         <v>9</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="5">
         <v>56</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="3">
         <v>43953</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="4">
         <v>67</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>491</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="5">
         <v>76</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="5">
         <v>4</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="5">
         <v>4</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="5">
         <v>55</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="3">
         <v>43954</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="4">
         <v>68</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="5">
         <v>511</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="5">
         <v>80</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="5">
         <v>7</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="5">
         <v>6</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="5">
         <v>44</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="3">
         <v>43955</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="4">
         <v>69</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>530</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5">
         <v>91</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="5">
         <v>3</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="5">
         <v>3</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="5">
         <v>35</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="3">
         <v>43956</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="4">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="5">
         <v>514</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5">
         <v>89</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
         <v>6</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="5">
         <v>6</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="5">
         <v>32</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="3">
         <v>43957</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="4">
         <v>71</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>457</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5">
         <v>73</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="5">
         <v>4</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="5">
         <v>4</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="5">
         <v>30</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="3">
         <v>43958</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="4">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>459</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="5">
         <v>84</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="5">
         <v>5</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="5">
         <v>5</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="5">
         <v>25</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="3">
         <v>43959</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="4">
         <v>73</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>445</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>82</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="5">
         <v>8</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="5">
         <v>7</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="5">
         <v>32</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="3">
         <v>43960</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="4">
         <v>74</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>465</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5">
         <v>78</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="5">
         <v>11</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>10</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="5">
         <v>40</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>43961</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="4">
         <v>75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>471</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="5">
         <v>83</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="5">
         <v>10</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>10</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="5">
         <v>51</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="3">
         <v>43962</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="4">
         <v>76</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>457</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="5">
         <v>87</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="5">
         <v>9</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="5">
         <v>8</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="5">
         <v>47</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="3">
         <v>43963</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="4">
         <v>77</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="5">
         <v>443</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="5">
         <v>86</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="5">
         <v>5</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="5">
         <v>5</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="5">
         <v>56</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="A79" s="3">
         <v>43964</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="4">
         <v>78</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>473</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="5">
         <v>90</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="5">
         <v>4</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="5">
         <v>4</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="5">
         <v>57</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>43965</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="4">
         <v>79</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>465</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <v>79</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="5">
         <v>6</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="5">
         <v>6</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="5">
         <v>55</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="3">
         <v>43966</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="4">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>463</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <v>93</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="5">
         <v>31</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="5">
         <v>31</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="5">
         <v>55</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="3">
         <v>43967</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="4">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="5">
         <v>472</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="5">
         <v>88</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="5">
         <v>7</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="5">
         <v>7</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="5">
         <v>40</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="A83" s="3">
         <v>43968</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="4">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>470</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="5">
         <v>101</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="5">
         <v>9</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="5">
         <v>8</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="5">
         <v>55</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="A84" s="3">
         <v>43969</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="4">
         <v>83</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>469</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <v>97</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="5">
         <v>8</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="5">
         <v>8</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="5">
         <v>47</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="A85" s="3">
         <v>43970</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="4">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>486</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5">
         <v>106</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="5">
         <v>14</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="5">
         <v>12</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="5">
         <v>54</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="A86" s="3">
         <v>43971</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="4">
         <v>85</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>458</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="5">
         <v>93</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="5">
         <v>12</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="5">
         <v>11</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="5">
         <v>50</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="A87" s="3">
         <v>43972</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="4">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>508</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="5">
         <v>103</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="5">
         <v>4</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="5">
         <v>4</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="5">
         <v>48</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="A88" s="3">
         <v>43973</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="4">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>493</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="5">
         <v>89</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="5">
         <v>4</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="5">
         <v>4</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="5">
         <v>42</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="A89" s="3">
         <v>43974</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="4">
         <v>88</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>478</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <v>89</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="5">
         <v>5</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="5">
         <v>5</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="5">
         <v>38</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="A90" s="3">
         <v>43975</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="4">
         <v>89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="5">
         <v>463</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="5">
         <v>89</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="5">
         <v>7</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="5">
         <v>6</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="5">
         <v>47</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="3">
         <v>43976</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="4">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>483</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="5">
         <v>89</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="5">
         <v>4</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="5">
         <v>4</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="5">
         <v>36</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="A92" s="3">
         <v>43977</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="4">
         <v>91</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>481</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <v>102</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <v>7</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <v>7</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <v>36</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A93" s="3">
         <v>43978</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="4">
         <v>92</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>478</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5">
         <v>77</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="5">
         <v>7</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="5">
         <v>6</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="5">
         <v>33</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="A94" s="3">
         <v>43979</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="4">
         <v>93</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>160</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5">
         <v>254</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="5">
         <v>2</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="5">
         <v>2</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="5">
         <v>11</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="A95" s="3">
         <v>43980</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="4">
         <v>94</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="5">
         <v>163</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="5">
         <v>101</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="5">
         <v>2</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="5">
         <v>2</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="5">
         <v>13</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="A96" s="3">
         <v>43981</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="4">
         <v>95</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="5">
         <v>170</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="5">
         <v>179</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="5">
         <v>3</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="5">
         <v>3</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="5">
         <v>10</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="A97" s="3">
         <v>43982</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="4">
         <v>96</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="5">
         <v>165</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="5">
         <v>101</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="5">
         <v>2</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="5">
         <v>2</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="5">
         <v>9</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="A98" s="3">
         <v>43983</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="4">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="5">
         <v>163</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="5">
         <v>121</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="5">
         <v>2</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="5">
         <v>2</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="5">
         <v>10</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="A99" s="3">
         <v>43984</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="4">
         <v>98</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="5">
         <v>299</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="5">
         <v>135</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="5">
         <v>2</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="5">
         <v>2</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="5">
         <v>13</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="A100" s="3">
         <v>43985</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="4">
         <v>99</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="5">
         <v>421</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="5">
         <v>195</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="5">
         <v>5</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="5">
         <v>5</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="5">
         <v>31</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="A101" s="3">
         <v>43986</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="4">
         <v>100</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="5">
         <v>384</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="5">
         <v>209</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="5">
         <v>5</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="5">
         <v>5</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="5">
         <v>30</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="A102" s="3">
         <v>43987</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="4">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="5">
         <v>438</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="5">
         <v>219</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="5">
         <v>7</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="5">
         <v>7</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="5">
         <v>53</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="A103" s="3">
         <v>43988</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="4">
         <v>102</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="5">
         <v>427</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="5">
         <v>216</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="5">
         <v>7</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="5">
         <v>7</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="5">
         <v>45</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="A104" s="3">
         <v>43989</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="4">
         <v>103</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="5">
         <v>420</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="5">
         <v>225</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="5">
         <v>6</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="5">
         <v>6</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="5">
         <v>43</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="A105" s="3">
         <v>43990</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="4">
         <v>104</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="5">
         <v>446</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="5">
         <v>202</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="5">
         <v>11</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="5">
         <v>10</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="5">
         <v>44</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="A106" s="3">
         <v>43991</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="4">
         <v>105</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="5">
         <v>462</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="5">
         <v>154</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="5">
         <v>13</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="5">
         <v>12</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="5">
         <v>53</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="A107" s="3">
         <v>43992</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="4">
         <v>106</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="5">
         <v>436</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="5">
         <v>148</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="5">
         <v>8</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="5">
         <v>8</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="5">
         <v>46</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="A108" s="3">
         <v>43993</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="4">
         <v>107</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="5">
         <v>443</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="5">
         <v>205</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="5">
         <v>7</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="5">
         <v>7</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="5">
         <v>30</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="3">
         <v>43994</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="4">
         <v>108</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="5">
         <v>451</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="5">
         <v>133</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="5">
         <v>9</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="5">
         <v>8</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="5">
         <v>46</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="A110" s="3">
         <v>43995</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="4">
         <v>109</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="5">
         <v>446</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="5">
         <v>148</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="5">
         <v>14</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="5">
         <v>13</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="5">
         <v>48</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="3">
         <v>43996</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="4">
         <v>110</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="5">
         <v>435</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="5">
         <v>159</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="5">
         <v>13</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="5">
         <v>12</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="5">
         <v>45</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="A112" s="3">
         <v>43997</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="4">
         <v>111</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="5">
         <v>452</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <v>152</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="5">
         <v>13</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="5">
         <v>12</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="5">
         <v>34</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="3">
         <v>43998</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="4">
         <v>112</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="5">
         <v>441</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="5">
         <v>132</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="5">
         <v>9</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="5">
         <v>9</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="5">
         <v>35</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="3">
         <v>43999</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="4">
         <v>113</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>482</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <v>120</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="5">
         <v>10</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="5">
         <v>9</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="5">
         <v>37</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="A115" s="3">
         <v>44000</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="4">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="5">
         <v>487</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="5">
         <v>132</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="5">
         <v>16</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="5">
         <v>15</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="5">
         <v>43</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="5">
         <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="3">
         <v>44001</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="4">
         <v>115</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="5">
         <v>456</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="5">
         <v>142</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="5">
         <v>10</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="5">
         <v>9</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="5">
         <v>38</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="A117" s="3">
         <v>44002</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="4">
         <v>116</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="5">
         <v>488</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="5">
         <v>160</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="5">
         <v>4</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="5">
         <v>4</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="5">
         <v>51</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="A118" s="3">
         <v>44003</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="4">
         <v>117</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="5">
         <v>476</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="5">
         <v>266</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="5">
         <v>6</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="5">
         <v>6</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="5">
         <v>51</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+      <c r="A119" s="3">
         <v>44004</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="4">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="5">
         <v>494</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="5">
         <v>196</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="5">
         <v>8</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="5">
         <v>7</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="5">
         <v>43</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="A120" s="3">
         <v>44005</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="4">
         <v>119</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="5">
         <v>528</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="5">
         <v>161</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="5">
         <v>6</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="5">
         <v>6</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="5">
         <v>37</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="A121" s="3">
         <v>44006</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="4">
         <v>120</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="5">
         <v>535</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="5">
         <v>154</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="5">
         <v>9</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="5">
         <v>9</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="5">
         <v>56</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="A122" s="3">
         <v>44007</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="4">
         <v>121</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="5">
         <v>506</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="5">
         <v>170</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="5">
         <v>7</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="5">
         <v>7</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="5">
         <v>55</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="A123" s="3">
         <v>44008</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="4">
         <v>122</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="5">
         <v>511</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="5">
         <v>172</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="5">
         <v>8</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="5">
         <v>8</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="5">
         <v>54</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="A124" s="3">
         <v>44009</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="4">
         <v>123</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="5">
         <v>503</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="5">
         <v>250</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="5">
         <v>10</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="5">
         <v>9</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="5">
         <v>61</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="A125" s="3">
         <v>44010</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="4">
         <v>124</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="5">
         <v>471</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="5">
         <v>247</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="5">
         <v>8</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="5">
         <v>8</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="5">
         <v>60</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="A126" s="3">
         <v>44011</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="4">
         <v>125</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="5">
         <v>461</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="5">
         <v>189</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="5">
         <v>14</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="5">
         <v>13</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="5">
         <v>64</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="5">
         <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="A127" s="3">
         <v>44012</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="4">
         <v>126</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>459</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="5">
         <v>185</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="5">
         <v>14</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="5">
         <v>13</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="5">
         <v>54</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="A128" s="3">
         <v>44013</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="4">
         <v>127</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="5">
         <v>468</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="5">
         <v>184</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="5">
         <v>7</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="5">
         <v>7</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="5">
         <v>56</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="A129" s="3">
         <v>44014</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="4">
         <v>128</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
         <v>481</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="5">
         <v>182</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="5">
         <v>7</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="5">
         <v>7</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="5">
         <v>54</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+      <c r="A130" s="3">
         <v>44015</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="4">
         <v>129</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
         <v>505</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="5">
         <v>197</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="5">
         <v>7</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="5">
         <v>6</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="5">
         <v>61</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="A131" s="3">
         <v>44016</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="4">
         <v>130</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="5">
         <v>486</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="5">
         <v>186</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="5">
         <v>11</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="5">
         <v>10</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="5">
         <v>77</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="A132" s="3">
         <v>44017</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="4">
         <v>131</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
         <v>483</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="5">
         <v>171</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="5">
         <v>7</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="5">
         <v>7</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="5">
         <v>56</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="A133" s="3">
         <v>44018</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="4">
         <v>132</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>517</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="5">
         <v>165</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="5">
         <v>6</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="5">
         <v>6</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="5">
         <v>53</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="3">
         <v>44019</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="4">
         <v>133</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="5">
         <v>554</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="5">
         <v>167</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="5">
         <v>7</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="5">
         <v>6</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="5">
         <v>47</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="A135" s="3">
         <v>44020</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="4">
         <v>134</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="5">
         <v>550</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="5">
         <v>212</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="5">
         <v>3</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="5">
         <v>3</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="5">
         <v>35</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="A136" s="3">
         <v>44021</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="4">
         <v>135</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="5">
         <v>526</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="5">
         <v>230</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="5">
         <v>5</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="5">
         <v>5</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="5">
         <v>57</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="A137" s="3">
         <v>44022</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="4">
         <v>136</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="5">
         <v>536</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="5">
         <v>222</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="5">
         <v>4</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="5">
         <v>4</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="5">
         <v>58</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="A138" s="3">
         <v>44023</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="4">
         <v>137</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="5">
         <v>537</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="5">
         <v>227</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="5">
         <v>4</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="5">
         <v>4</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="5">
         <v>51</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="A139" s="3">
         <v>44024</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="4">
         <v>138</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="5">
         <v>529</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="5">
         <v>233</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="5">
         <v>6</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="5">
         <v>6</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="5">
         <v>57</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="A140" s="3">
         <v>44025</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="4">
         <v>139</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="5">
         <v>562</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="5">
         <v>111</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="5">
         <v>3</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="5">
         <v>3</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="5">
         <v>60</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="A141" s="3">
         <v>44026</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="4">
         <v>140</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="5">
         <v>554</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="5">
         <v>196</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="5">
         <v>4</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="5">
         <v>4</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="5">
         <v>56</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="A142" s="3">
         <v>44027</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="4">
         <v>141</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="5">
         <v>548</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="5">
         <v>231</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="5">
         <v>5</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="5">
         <v>5</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="5">
         <v>74</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="A143" s="3">
         <v>44028</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="4">
         <v>142</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="5">
         <v>545</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="5">
         <v>237</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="5">
         <v>6</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="5">
         <v>6</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="5">
         <v>60</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="A144" s="3">
         <v>44029</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="4">
         <v>143</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="5">
         <v>534</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="5">
         <v>241</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="5">
         <v>7</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="5">
         <v>7</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="5">
         <v>64</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+      <c r="A145" s="3">
         <v>44030</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="4">
         <v>144</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="5">
         <v>534</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="5">
         <v>235</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="5">
         <v>6</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="5">
         <v>6</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="5">
         <v>61</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="A146" s="3">
         <v>44031</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="4">
         <v>145</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="5">
         <v>544</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="5">
         <v>264</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="5">
         <v>10</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="5">
         <v>9</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="5">
         <v>53</v>
       </c>
-      <c r="H146">
+      <c r="H146" s="5">
         <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
+      <c r="A147" s="3">
         <v>44032</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="4">
         <v>146</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="5">
         <v>424</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="5">
         <v>152</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="5">
         <v>8</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="5">
         <v>7</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="5">
         <v>36</v>
       </c>
-      <c r="H147">
+      <c r="H147" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
+      <c r="A148" s="3">
         <v>44033</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="4">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="5">
         <v>431</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="5">
         <v>231</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="5">
         <v>6</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="5">
         <v>6</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="5">
         <v>39</v>
       </c>
-      <c r="H148">
+      <c r="H148" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
+      <c r="A149" s="3">
         <v>44034</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="4">
         <v>148</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="5">
         <v>400</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="5">
         <v>174</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="5">
         <v>6</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="5">
         <v>6</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="5">
         <v>32</v>
       </c>
-      <c r="H149">
+      <c r="H149" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
+      <c r="A150" s="3">
         <v>44035</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="4">
         <v>149</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="5">
         <v>414</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="5">
         <v>158</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="5">
         <v>5</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="5">
         <v>5</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="5">
         <v>26</v>
       </c>
-      <c r="H150">
+      <c r="H150" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
+      <c r="A151" s="3">
         <v>44036</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="4">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="5">
         <v>438</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="5">
         <v>174</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="5">
         <v>6</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="5">
         <v>6</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="5">
         <v>35</v>
       </c>
-      <c r="H151">
+      <c r="H151" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
+      <c r="A152" s="3">
         <v>44037</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="4">
         <v>151</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="5">
         <v>394</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="5">
         <v>163</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="5">
         <v>4</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="5">
         <v>4</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="5">
         <v>35</v>
       </c>
-      <c r="H152">
+      <c r="H152" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
+      <c r="A153" s="3">
         <v>44038</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="4">
         <v>152</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="5">
         <v>394</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="5">
         <v>245</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="5">
         <v>6</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="5">
         <v>6</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="5">
         <v>27</v>
       </c>
-      <c r="H153">
+      <c r="H153" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
+      <c r="A154" s="3">
         <v>44039</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="4">
         <v>153</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="5">
         <v>389</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="5">
         <v>205</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="5">
         <v>9</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="5">
         <v>8</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="5">
         <v>40</v>
       </c>
-      <c r="H154">
+      <c r="H154" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
+      <c r="A155" s="3">
         <v>44040</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="4">
         <v>154</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="5">
         <v>413</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="5">
         <v>199</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="5">
         <v>8</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="5">
         <v>7</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="5">
         <v>36</v>
       </c>
-      <c r="H155">
+      <c r="H155" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
+      <c r="A156" s="3">
         <v>44041</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="4">
         <v>155</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="5">
         <v>389</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="5">
         <v>196</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="5">
         <v>8</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="5">
         <v>7</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="5">
         <v>36</v>
       </c>
-      <c r="H156">
+      <c r="H156" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
+      <c r="A157" s="3">
         <v>44042</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="4">
         <v>156</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="5">
         <v>402</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="5">
         <v>199</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="5">
         <v>8</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="5">
         <v>7</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="5">
         <v>32</v>
       </c>
-      <c r="H157">
+      <c r="H157" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+      <c r="A158" s="3">
         <v>44043</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="4">
         <v>157</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="5">
         <v>398</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="5">
         <v>186</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="5">
         <v>7</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="5">
         <v>37</v>
       </c>
-      <c r="H158">
+      <c r="H158" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+      <c r="A159" s="3">
         <v>44044</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="4">
         <v>158</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="5">
         <v>395</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="5">
         <v>244</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="5">
         <v>6</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="5">
         <v>6</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="5">
         <v>39</v>
       </c>
-      <c r="H159">
+      <c r="H159" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+      <c r="A160" s="3">
         <v>44045</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="4">
         <v>159</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="5">
         <v>425</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="5">
         <v>226</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="5">
         <v>2</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="5">
         <v>3</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="5">
         <v>34</v>
       </c>
-      <c r="H160">
+      <c r="H160" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+      <c r="A161" s="3">
         <v>44046</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="4">
         <v>160</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="5">
         <v>388</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="5">
         <v>275</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="5">
         <v>3</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="5">
         <v>3</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="5">
         <v>35</v>
       </c>
-      <c r="H161">
+      <c r="H161" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+      <c r="A162" s="3">
         <v>44047</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="4">
         <v>161</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="5">
         <v>362</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="5">
         <v>111</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="5">
         <v>2</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="5">
         <v>2</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="5">
         <v>29</v>
       </c>
-      <c r="H162">
+      <c r="H162" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+      <c r="A163" s="3">
         <v>44048</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="4">
         <v>162</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="5">
         <v>365</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="5">
         <v>106</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="5">
         <v>3</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="5">
         <v>3</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="5">
         <v>30</v>
       </c>
-      <c r="H163">
+      <c r="H163" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+      <c r="A164" s="3">
         <v>44049</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="4">
         <v>163</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="5">
         <v>374</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="5">
         <v>110</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="5">
         <v>4</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="5">
         <v>4</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="5">
         <v>31</v>
       </c>
-      <c r="H164">
+      <c r="H164" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+      <c r="A165" s="3">
         <v>44050</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="4">
         <v>164</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="5">
         <v>388</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="5">
         <v>107</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="5">
         <v>5</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="5">
         <v>5</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="5">
         <v>29</v>
       </c>
-      <c r="H165">
+      <c r="H165" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+      <c r="A166" s="3">
         <v>44051</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="4">
         <v>165</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="5">
         <v>365</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="5">
         <v>115</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="5">
         <v>6</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="5">
         <v>6</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="5">
         <v>28</v>
       </c>
-      <c r="H166">
+      <c r="H166" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+      <c r="A167" s="3">
         <v>44052</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="4">
         <v>166</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="5">
         <v>419</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="5">
         <v>109</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="5">
         <v>3</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="5">
         <v>3</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="5">
         <v>43</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+      <c r="A168" s="3">
         <v>44053</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="4">
         <v>167</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="5">
         <v>444</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="5">
         <v>112</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="5">
         <v>4</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="5">
         <v>4</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="5">
         <v>51</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
+      <c r="A169" s="3">
         <v>44054</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="4">
         <v>168</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="5">
         <v>416</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="5">
         <v>130</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="5">
         <v>6</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="5">
         <v>6</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="5">
         <v>44</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
+      <c r="A170" s="3">
         <v>44055</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="4">
         <v>169</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="5">
         <v>399</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="5">
         <v>108</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="5">
         <v>5</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="5">
         <v>5</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="5">
         <v>36</v>
       </c>
-      <c r="H170">
+      <c r="H170" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
+      <c r="A171" s="3">
         <v>44056</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="4">
         <v>170</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="5">
         <v>437</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="5">
         <v>107</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="5">
         <v>6</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="5">
         <v>5</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="5">
         <v>40</v>
       </c>
-      <c r="H171">
+      <c r="H171" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
+      <c r="A172" s="3">
         <v>44057</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="4">
         <v>171</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="5">
         <v>420</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="5">
         <v>111</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="5">
         <v>8</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="5">
         <v>7</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="5">
         <v>38</v>
       </c>
-      <c r="H172">
+      <c r="H172" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
+      <c r="A173" s="3">
         <v>44058</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="4">
         <v>172</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="5">
         <v>408</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="5">
         <v>101</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="5">
         <v>4</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="5">
         <v>4</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="5">
         <v>42</v>
       </c>
-      <c r="H173">
+      <c r="H173" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
+      <c r="A174" s="3">
         <v>44059</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="4">
         <v>173</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="5">
         <v>439</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="5">
         <v>109</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="5">
         <v>4</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="5">
         <v>4</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="5">
         <v>36</v>
       </c>
-      <c r="H174">
+      <c r="H174" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
+      <c r="A175" s="3">
         <v>44060</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="4">
         <v>174</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="5">
         <v>424</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="5">
         <v>105</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="5">
         <v>4</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="5">
         <v>4</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="5">
         <v>42</v>
       </c>
-      <c r="H175">
+      <c r="H175" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
+      <c r="A176" s="3">
         <v>44061</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="4">
         <v>175</v>
       </c>
-      <c r="C176">
-        <v>416</v>
-      </c>
-      <c r="D176">
-        <v>108</v>
-      </c>
-      <c r="E176">
+      <c r="C176" s="5">
+        <v>415</v>
+      </c>
+      <c r="D176" s="5">
+        <v>111</v>
+      </c>
+      <c r="E176" s="5">
+        <v>5</v>
+      </c>
+      <c r="F176" s="5">
         <v>4</v>
       </c>
-      <c r="F176">
-        <v>4</v>
-      </c>
-      <c r="G176">
-        <v>30</v>
-      </c>
-      <c r="H176">
+      <c r="G176" s="5">
+        <v>34</v>
+      </c>
+      <c r="H176" s="5">
         <v>11</v>
       </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>44062</v>
+      </c>
+      <c r="B177" s="4">
+        <v>176</v>
+      </c>
+      <c r="C177" s="5">
+        <v>420</v>
+      </c>
+      <c r="D177" s="5">
+        <v>110</v>
+      </c>
+      <c r="E177" s="5">
+        <v>8</v>
+      </c>
+      <c r="F177" s="5">
+        <v>8</v>
+      </c>
+      <c r="G177" s="5">
+        <v>45</v>
+      </c>
+      <c r="H177" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B178" s="4">
+        <v>177</v>
+      </c>
+      <c r="C178" s="5">
+        <v>422</v>
+      </c>
+      <c r="D178" s="5">
+        <v>111</v>
+      </c>
+      <c r="E178" s="5">
+        <v>6</v>
+      </c>
+      <c r="F178" s="5">
+        <v>6</v>
+      </c>
+      <c r="G178" s="5">
+        <v>51</v>
+      </c>
+      <c r="H178" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>44064</v>
+      </c>
+      <c r="B179" s="4">
+        <v>178</v>
+      </c>
+      <c r="C179" s="5">
+        <v>344</v>
+      </c>
+      <c r="D179" s="5">
+        <v>105</v>
+      </c>
+      <c r="E179" s="5">
+        <v>6</v>
+      </c>
+      <c r="F179" s="5">
+        <v>6</v>
+      </c>
+      <c r="G179" s="5">
+        <v>28</v>
+      </c>
+      <c r="H179" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B180" s="4">
+        <v>179</v>
+      </c>
+      <c r="C180" s="5">
+        <v>324</v>
+      </c>
+      <c r="D180" s="5">
+        <v>112</v>
+      </c>
+      <c r="E180" s="5">
+        <v>8</v>
+      </c>
+      <c r="F180" s="5">
+        <v>7</v>
+      </c>
+      <c r="G180" s="5">
+        <v>29</v>
+      </c>
+      <c r="H180" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="1"/>
+      <c r="B181" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DC77C6-A707-4C2F-93CF-F95650117C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC78C5-01CD-4F73-93FD-7A49D794F2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="264" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8652" yWindow="288" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -536,14 +536,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -910,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,4683 +915,4683 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>43887</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>508</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>141</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>31</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>28</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>37</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>43888</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>455</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>159</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>14</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>12</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>32</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>43889</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>488</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>155</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>21</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>19</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>29</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>43890</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>490</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>171</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>25</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>23</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>32</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>43891</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>530</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>169</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>48</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>42</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>34</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>43892</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>528</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>150</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>116</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>101</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>40</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>43893</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>526</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>252</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>28</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>25</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>40</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>43894</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>527</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>206</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>14</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>44</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>43895</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>496</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>122</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>24</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>22</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>35</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>43896</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>517</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>205</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>18</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>30</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>43897</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>529</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>202</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>27</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>25</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>42</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>43898</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>485</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>153</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>25</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>23</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>33</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>43899</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>508</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>136</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>33</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>29</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>36</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>43900</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>514</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>259</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>28</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>25</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>32</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>43901</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>555</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>337</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>19</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <v>17</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>43902</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>529</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>218</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>18</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <v>16</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>35</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>43903</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>516</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>242</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>14</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>34</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>43904</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>469</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>132</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="3">
         <v>9</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <v>8</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>32</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>43905</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>493</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>156</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>25</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>43906</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>518</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>171</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <v>11</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <v>10</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>25</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>43907</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>472</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>153</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>17</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <v>16</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>31</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>43908</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>472</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>167</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>24</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>22</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>31</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>43909</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>498</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>133</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>27</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>24</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>43</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>43910</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>501</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>174</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>39</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>35</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>50</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>43911</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>479</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>218</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>38</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>34</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>60</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>43912</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>440</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="3">
         <v>152</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="3">
         <v>8</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>8</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>41</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>43913</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>433</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="3">
         <v>182</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="3">
         <v>13</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>12</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>38</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>43914</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>443</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="3">
         <v>158</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="3">
         <v>9</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>8</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>30</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>43915</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>455</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>101</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="3">
         <v>10</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <v>9</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>27</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>43916</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>463</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>97</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="3">
         <v>25</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <v>15</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>32</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>43917</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>449</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>95</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>14</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>11</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>41</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>43918</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>463</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>88</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>13</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>12</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>53</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>43919</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>441</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>90</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>17</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>15</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>53</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>43920</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>425</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>90</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="3">
         <v>23</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <v>21</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>53</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>43921</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>444</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>130</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>6</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <v>6</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>53</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>43922</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>400</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>97</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="3">
         <v>6</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>6</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>50</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>43923</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>429</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>113</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="3">
         <v>7</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <v>7</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>49</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>43924</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>438</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>109</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="3">
         <v>17</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>15</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>41</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>43925</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>437</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>98</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="3">
         <v>25</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="3">
         <v>22</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>42</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>43926</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>445</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>102</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="3">
         <v>18</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="3">
         <v>17</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>39</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>43927</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>446</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>105</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="3">
         <v>19</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="3">
         <v>17</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>38</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>43928</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>436</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>120</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="3">
         <v>9</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="3">
         <v>8</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="3">
         <v>50</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>43929</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>437</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="3">
         <v>17</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="3">
         <v>15</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>58</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>43930</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>417</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>92</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="3">
         <v>19</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="3">
         <v>17</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>55</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>43931</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>432</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>89</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="3">
         <v>20</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>18</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>60</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>43932</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>46</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>441</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>98</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="3">
         <v>13</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="3">
         <v>12</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>70</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>43933</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>47</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>437</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>78</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>19</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <v>17</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>69</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>43934</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>462</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>80</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>14</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="3">
         <v>13</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <v>65</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>43935</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>476</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>73</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="3">
         <v>20</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="3">
         <v>18</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>67</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>43936</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>470</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="3">
         <v>94</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="3">
         <v>4</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="3">
         <v>4</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="3">
         <v>50</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>43937</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>456</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="3">
         <v>72</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="3">
         <v>8</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="3">
         <v>7</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="3">
         <v>52</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>43938</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>52</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>460</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="3">
         <v>75</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="3">
         <v>10</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="3">
         <v>10</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="3">
         <v>62</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>43939</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>53</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>451</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="3">
         <v>78</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="3">
         <v>13</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="3">
         <v>12</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="3">
         <v>49</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>43940</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>54</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>443</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="3">
         <v>75</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="3">
         <v>12</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="3">
         <v>11</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="3">
         <v>51</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>43941</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>55</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>438</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="3">
         <v>93</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="3">
         <v>7</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="3">
         <v>6</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="3">
         <v>51</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>43942</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>56</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>492</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="3">
         <v>90</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="3">
         <v>8</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="3">
         <v>8</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="3">
         <v>41</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>43943</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>458</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="3">
         <v>85</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="3">
         <v>11</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="3">
         <v>10</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58" s="3">
         <v>42</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>43944</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>450</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="3">
         <v>96</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="3">
         <v>10</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="3">
         <v>9</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="3">
         <v>46</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>43945</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>59</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>417</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="3">
         <v>76</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="3">
         <v>9</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="3">
         <v>9</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="3">
         <v>47</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>43946</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>60</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>429</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="3">
         <v>68</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="3">
         <v>10</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="3">
         <v>9</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61" s="3">
         <v>49</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>43947</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>61</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>433</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="3">
         <v>70</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="3">
         <v>4</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="3">
         <v>4</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="3">
         <v>60</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <v>43948</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>62</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>474</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="3">
         <v>79</v>
       </c>
-      <c r="E63" s="5">
+      <c r="E63" s="3">
         <v>5</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="3">
         <v>5</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="3">
         <v>63</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <v>43949</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>63</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>485</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="3">
         <v>84</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="3">
         <v>10</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="3">
         <v>9</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64" s="3">
         <v>65</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
+      <c r="A65" s="1">
         <v>43950</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>64</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>473</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="3">
         <v>77</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="3">
         <v>8</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="3">
         <v>8</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65" s="3">
         <v>57</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <v>43951</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>65</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>473</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="3">
         <v>87</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="3">
         <v>8</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="3">
         <v>7</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="3">
         <v>69</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <v>43952</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>66</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>472</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="3">
         <v>80</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="3">
         <v>10</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="3">
         <v>9</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67" s="3">
         <v>56</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>43953</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>67</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>491</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="3">
         <v>76</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="3">
         <v>4</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="3">
         <v>4</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68" s="3">
         <v>55</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <v>43954</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>68</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>511</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="3">
         <v>80</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="3">
         <v>7</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="3">
         <v>6</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69" s="3">
         <v>44</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <v>43955</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="2">
         <v>69</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>530</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="3">
         <v>91</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="3">
         <v>3</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="3">
         <v>3</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70" s="3">
         <v>35</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
+      <c r="A71" s="1">
         <v>43956</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>514</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="3">
         <v>89</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="3">
         <v>6</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="3">
         <v>6</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="3">
         <v>32</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <v>43957</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="2">
         <v>71</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>457</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="3">
         <v>73</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="3">
         <v>4</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="3">
         <v>4</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="3">
         <v>30</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
+      <c r="A73" s="1">
         <v>43958</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="2">
         <v>72</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>459</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="3">
         <v>84</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="3">
         <v>5</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="3">
         <v>5</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73" s="3">
         <v>25</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <v>43959</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="2">
         <v>73</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>445</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="3">
         <v>82</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="3">
         <v>8</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="3">
         <v>7</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74" s="3">
         <v>32</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+      <c r="A75" s="1">
         <v>43960</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="2">
         <v>74</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>465</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="3">
         <v>78</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="3">
         <v>11</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="3">
         <v>10</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="3">
         <v>40</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <v>43961</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="2">
         <v>75</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>471</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="3">
         <v>83</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="3">
         <v>10</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="3">
         <v>10</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76" s="3">
         <v>51</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
+      <c r="A77" s="1">
         <v>43962</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="2">
         <v>76</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>457</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="3">
         <v>87</v>
       </c>
-      <c r="E77" s="5">
+      <c r="E77" s="3">
         <v>9</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="3">
         <v>8</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77" s="3">
         <v>47</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
+      <c r="A78" s="1">
         <v>43963</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="2">
         <v>77</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="3">
         <v>443</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="3">
         <v>86</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="3">
         <v>5</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="3">
         <v>5</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78" s="3">
         <v>56</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
+      <c r="A79" s="1">
         <v>43964</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="3">
         <v>473</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="3">
         <v>90</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E79" s="3">
         <v>4</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="3">
         <v>4</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="3">
         <v>57</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
+      <c r="A80" s="1">
         <v>43965</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="2">
         <v>79</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="3">
         <v>465</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="3">
         <v>79</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="3">
         <v>6</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="3">
         <v>6</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80" s="3">
         <v>55</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
+      <c r="A81" s="1">
         <v>43966</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="3">
         <v>463</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="3">
         <v>93</v>
       </c>
-      <c r="E81" s="5">
+      <c r="E81" s="3">
         <v>31</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="3">
         <v>31</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81" s="3">
         <v>55</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
+      <c r="A82" s="1">
         <v>43967</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="2">
         <v>81</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="3">
         <v>472</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="3">
         <v>88</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="3">
         <v>7</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="3">
         <v>7</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82" s="3">
         <v>40</v>
       </c>
-      <c r="H82" s="5">
+      <c r="H82" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
+      <c r="A83" s="1">
         <v>43968</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="2">
         <v>82</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="3">
         <v>470</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="3">
         <v>101</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E83" s="3">
         <v>9</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="3">
         <v>8</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83" s="3">
         <v>55</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H83" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
+      <c r="A84" s="1">
         <v>43969</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="2">
         <v>83</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>469</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="3">
         <v>97</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="3">
         <v>8</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="3">
         <v>8</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84" s="3">
         <v>47</v>
       </c>
-      <c r="H84" s="5">
+      <c r="H84" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
+      <c r="A85" s="1">
         <v>43970</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="3">
         <v>486</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="3">
         <v>106</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E85" s="3">
         <v>14</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="3">
         <v>12</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85" s="3">
         <v>54</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
+      <c r="A86" s="1">
         <v>43971</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="2">
         <v>85</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="3">
         <v>458</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="3">
         <v>93</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="3">
         <v>12</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="3">
         <v>11</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="3">
         <v>50</v>
       </c>
-      <c r="H86" s="5">
+      <c r="H86" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
+      <c r="A87" s="1">
         <v>43972</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="2">
         <v>86</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="3">
         <v>508</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="3">
         <v>103</v>
       </c>
-      <c r="E87" s="5">
+      <c r="E87" s="3">
         <v>4</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="3">
         <v>4</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87" s="3">
         <v>48</v>
       </c>
-      <c r="H87" s="5">
+      <c r="H87" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="1">
         <v>43973</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="2">
         <v>87</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="3">
         <v>493</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="3">
         <v>89</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="3">
         <v>4</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="3">
         <v>4</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88" s="3">
         <v>42</v>
       </c>
-      <c r="H88" s="5">
+      <c r="H88" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="1">
         <v>43974</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="2">
         <v>88</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="3">
         <v>478</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="3">
         <v>89</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E89" s="3">
         <v>5</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="3">
         <v>5</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="3">
         <v>38</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H89" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="1">
         <v>43975</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="3">
         <v>463</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="3">
         <v>89</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="3">
         <v>7</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="3">
         <v>6</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="3">
         <v>47</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H90" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="1">
         <v>43976</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="2">
         <v>90</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="3">
         <v>483</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="3">
         <v>89</v>
       </c>
-      <c r="E91" s="5">
+      <c r="E91" s="3">
         <v>4</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="3">
         <v>4</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91" s="3">
         <v>36</v>
       </c>
-      <c r="H91" s="5">
+      <c r="H91" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="1">
         <v>43977</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="2">
         <v>91</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="3">
         <v>481</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="3">
         <v>102</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="3">
         <v>7</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="3">
         <v>7</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="3">
         <v>36</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H92" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="1">
         <v>43978</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="2">
         <v>92</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="3">
         <v>478</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="3">
         <v>77</v>
       </c>
-      <c r="E93" s="5">
+      <c r="E93" s="3">
         <v>7</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="3">
         <v>6</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="3">
         <v>33</v>
       </c>
-      <c r="H93" s="5">
+      <c r="H93" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="1">
         <v>43979</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="2">
         <v>93</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="3">
         <v>160</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="3">
         <v>254</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="3">
         <v>2</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="3">
         <v>2</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94" s="3">
         <v>11</v>
       </c>
-      <c r="H94" s="5">
+      <c r="H94" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="1">
         <v>43980</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="2">
         <v>94</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="3">
         <v>163</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="3">
         <v>101</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E95" s="3">
         <v>2</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="3">
         <v>2</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95" s="3">
         <v>13</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H95" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="1">
         <v>43981</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="2">
         <v>95</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="3">
         <v>170</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="3">
         <v>179</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="3">
         <v>3</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="3">
         <v>3</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96" s="3">
         <v>10</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H96" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="1">
         <v>43982</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="2">
         <v>96</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>165</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="3">
         <v>101</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E97" s="3">
         <v>2</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="3">
         <v>2</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97" s="3">
         <v>9</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H97" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="1">
         <v>43983</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="2">
         <v>97</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="3">
         <v>163</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="3">
         <v>121</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="3">
         <v>2</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="3">
         <v>2</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="3">
         <v>10</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="1">
         <v>43984</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="2">
         <v>98</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="3">
         <v>299</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="3">
         <v>135</v>
       </c>
-      <c r="E99" s="5">
+      <c r="E99" s="3">
         <v>2</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="3">
         <v>2</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="3">
         <v>13</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="1">
         <v>43985</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="2">
         <v>99</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="3">
         <v>421</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="3">
         <v>195</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="3">
         <v>5</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="3">
         <v>5</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="3">
         <v>31</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="1">
         <v>43986</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="2">
         <v>100</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="3">
         <v>384</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="3">
         <v>209</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E101" s="3">
         <v>5</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="3">
         <v>5</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="3">
         <v>30</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="1">
         <v>43987</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="2">
         <v>101</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="3">
         <v>438</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="3">
         <v>219</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="3">
         <v>7</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="3">
         <v>7</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="3">
         <v>53</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="1">
         <v>43988</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="2">
         <v>102</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="3">
         <v>427</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="3">
         <v>216</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E103" s="3">
         <v>7</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="3">
         <v>7</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="3">
         <v>45</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="1">
         <v>43989</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="2">
         <v>103</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="3">
         <v>420</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="3">
         <v>225</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="3">
         <v>6</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="3">
         <v>6</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="3">
         <v>43</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="1">
         <v>43990</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="2">
         <v>104</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="3">
         <v>446</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="3">
         <v>202</v>
       </c>
-      <c r="E105" s="5">
+      <c r="E105" s="3">
         <v>11</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="3">
         <v>10</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="3">
         <v>44</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="1">
         <v>43991</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="2">
         <v>105</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="3">
         <v>462</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="3">
         <v>154</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="3">
         <v>13</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="3">
         <v>12</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="3">
         <v>53</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="1">
         <v>43992</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="2">
         <v>106</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="3">
         <v>436</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="3">
         <v>148</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E107" s="3">
         <v>8</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="3">
         <v>8</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="3">
         <v>46</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="1">
         <v>43993</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="2">
         <v>107</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="3">
         <v>443</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="3">
         <v>205</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="3">
         <v>7</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="3">
         <v>7</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="3">
         <v>30</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="1">
         <v>43994</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="2">
         <v>108</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="3">
         <v>451</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="3">
         <v>133</v>
       </c>
-      <c r="E109" s="5">
+      <c r="E109" s="3">
         <v>9</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F109" s="3">
         <v>8</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109" s="3">
         <v>46</v>
       </c>
-      <c r="H109" s="5">
+      <c r="H109" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
+      <c r="A110" s="1">
         <v>43995</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="2">
         <v>109</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="3">
         <v>446</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="3">
         <v>148</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="3">
         <v>14</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="3">
         <v>13</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110" s="3">
         <v>48</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H110" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
+      <c r="A111" s="1">
         <v>43996</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="2">
         <v>110</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="3">
         <v>435</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="3">
         <v>159</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E111" s="3">
         <v>13</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F111" s="3">
         <v>12</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111" s="3">
         <v>45</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H111" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
+      <c r="A112" s="1">
         <v>43997</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="2">
         <v>111</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="3">
         <v>452</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="3">
         <v>152</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="3">
         <v>13</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="3">
         <v>12</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="3">
         <v>34</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
+      <c r="A113" s="1">
         <v>43998</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="2">
         <v>112</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="3">
         <v>441</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="3">
         <v>132</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="3">
         <v>9</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="3">
         <v>9</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="3">
         <v>35</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
+      <c r="A114" s="1">
         <v>43999</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="2">
         <v>113</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="3">
         <v>482</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="3">
         <v>120</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="3">
         <v>10</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="3">
         <v>9</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114" s="3">
         <v>37</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H114" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
+      <c r="A115" s="1">
         <v>44000</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="2">
         <v>114</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="3">
         <v>487</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="3">
         <v>132</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E115" s="3">
         <v>16</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F115" s="3">
         <v>15</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115" s="3">
         <v>43</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H115" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="3">
+      <c r="A116" s="1">
         <v>44001</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="2">
         <v>115</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="3">
         <v>456</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="3">
         <v>142</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="3">
         <v>10</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="3">
         <v>9</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116" s="3">
         <v>38</v>
       </c>
-      <c r="H116" s="5">
+      <c r="H116" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="3">
+      <c r="A117" s="1">
         <v>44002</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="2">
         <v>116</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="3">
         <v>488</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="3">
         <v>160</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="3">
         <v>4</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="3">
         <v>4</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117" s="3">
         <v>51</v>
       </c>
-      <c r="H117" s="5">
+      <c r="H117" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="3">
+      <c r="A118" s="1">
         <v>44003</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="2">
         <v>117</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="3">
         <v>476</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="3">
         <v>266</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="3">
         <v>6</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="3">
         <v>6</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118" s="3">
         <v>51</v>
       </c>
-      <c r="H118" s="5">
+      <c r="H118" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="3">
+      <c r="A119" s="1">
         <v>44004</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="2">
         <v>118</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="3">
         <v>494</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="3">
         <v>196</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="3">
         <v>8</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="3">
         <v>7</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119" s="3">
         <v>43</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H119" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
+      <c r="A120" s="1">
         <v>44005</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="2">
         <v>119</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="3">
         <v>528</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="3">
         <v>161</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="3">
         <v>6</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="3">
         <v>6</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120" s="3">
         <v>37</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H120" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
+      <c r="A121" s="1">
         <v>44006</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="2">
         <v>120</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="3">
         <v>535</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="3">
         <v>154</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="3">
         <v>9</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="3">
         <v>9</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121" s="3">
         <v>56</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
+      <c r="A122" s="1">
         <v>44007</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="2">
         <v>121</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="3">
         <v>506</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="3">
         <v>170</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="3">
         <v>7</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="3">
         <v>7</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="3">
         <v>55</v>
       </c>
-      <c r="H122" s="5">
+      <c r="H122" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
+      <c r="A123" s="1">
         <v>44008</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="2">
         <v>122</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="3">
         <v>511</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="3">
         <v>172</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="3">
         <v>8</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="3">
         <v>8</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="3">
         <v>54</v>
       </c>
-      <c r="H123" s="5">
+      <c r="H123" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
+      <c r="A124" s="1">
         <v>44009</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="2">
         <v>123</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="3">
         <v>503</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="3">
         <v>250</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="3">
         <v>10</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="3">
         <v>9</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124" s="3">
         <v>61</v>
       </c>
-      <c r="H124" s="5">
+      <c r="H124" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="3">
+      <c r="A125" s="1">
         <v>44010</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="2">
         <v>124</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="3">
         <v>471</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="3">
         <v>247</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="3">
         <v>8</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="3">
         <v>8</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125" s="3">
         <v>60</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H125" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="3">
+      <c r="A126" s="1">
         <v>44011</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="2">
         <v>125</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="3">
         <v>461</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="3">
         <v>189</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="3">
         <v>14</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="3">
         <v>13</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126" s="3">
         <v>64</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H126" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="3">
+      <c r="A127" s="1">
         <v>44012</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="2">
         <v>126</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="3">
         <v>459</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="3">
         <v>185</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="3">
         <v>14</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="3">
         <v>13</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127" s="3">
         <v>54</v>
       </c>
-      <c r="H127" s="5">
+      <c r="H127" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="3">
+      <c r="A128" s="1">
         <v>44013</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="2">
         <v>127</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="3">
         <v>468</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="3">
         <v>184</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="3">
         <v>7</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="3">
         <v>7</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="3">
         <v>56</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H128" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
+      <c r="A129" s="1">
         <v>44014</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="2">
         <v>128</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="3">
         <v>481</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="3">
         <v>182</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E129" s="3">
         <v>7</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="3">
         <v>7</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129" s="3">
         <v>54</v>
       </c>
-      <c r="H129" s="5">
+      <c r="H129" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
+      <c r="A130" s="1">
         <v>44015</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="2">
         <v>129</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="3">
         <v>505</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="3">
         <v>197</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="3">
         <v>7</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="3">
         <v>6</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130" s="3">
         <v>61</v>
       </c>
-      <c r="H130" s="5">
+      <c r="H130" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="3">
+      <c r="A131" s="1">
         <v>44016</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="2">
         <v>130</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="3">
         <v>486</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="3">
         <v>186</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E131" s="3">
         <v>11</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F131" s="3">
         <v>10</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="3">
         <v>77</v>
       </c>
-      <c r="H131" s="5">
+      <c r="H131" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="3">
+      <c r="A132" s="1">
         <v>44017</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="2">
         <v>131</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="3">
         <v>483</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="3">
         <v>171</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="3">
         <v>7</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="3">
         <v>7</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132" s="3">
         <v>56</v>
       </c>
-      <c r="H132" s="5">
+      <c r="H132" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="3">
+      <c r="A133" s="1">
         <v>44018</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="2">
         <v>132</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="3">
         <v>517</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="3">
         <v>165</v>
       </c>
-      <c r="E133" s="5">
+      <c r="E133" s="3">
         <v>6</v>
       </c>
-      <c r="F133" s="5">
+      <c r="F133" s="3">
         <v>6</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133" s="3">
         <v>53</v>
       </c>
-      <c r="H133" s="5">
+      <c r="H133" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="3">
+      <c r="A134" s="1">
         <v>44019</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="2">
         <v>133</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="3">
         <v>554</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="3">
         <v>167</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="3">
         <v>7</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="3">
         <v>6</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134" s="3">
         <v>47</v>
       </c>
-      <c r="H134" s="5">
+      <c r="H134" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="3">
+      <c r="A135" s="1">
         <v>44020</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="2">
         <v>134</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="3">
         <v>550</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="3">
         <v>212</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135" s="3">
         <v>3</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F135" s="3">
         <v>3</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="3">
         <v>35</v>
       </c>
-      <c r="H135" s="5">
+      <c r="H135" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="3">
+      <c r="A136" s="1">
         <v>44021</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="2">
         <v>135</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="3">
         <v>526</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="3">
         <v>230</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="3">
         <v>5</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="3">
         <v>5</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="3">
         <v>57</v>
       </c>
-      <c r="H136" s="5">
+      <c r="H136" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="3">
+      <c r="A137" s="1">
         <v>44022</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="2">
         <v>136</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="3">
         <v>536</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="3">
         <v>222</v>
       </c>
-      <c r="E137" s="5">
+      <c r="E137" s="3">
         <v>4</v>
       </c>
-      <c r="F137" s="5">
+      <c r="F137" s="3">
         <v>4</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="3">
         <v>58</v>
       </c>
-      <c r="H137" s="5">
+      <c r="H137" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="3">
+      <c r="A138" s="1">
         <v>44023</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="2">
         <v>137</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="3">
         <v>537</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="3">
         <v>227</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="3">
         <v>4</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="3">
         <v>4</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138" s="3">
         <v>51</v>
       </c>
-      <c r="H138" s="5">
+      <c r="H138" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="3">
+      <c r="A139" s="1">
         <v>44024</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="2">
         <v>138</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="3">
         <v>529</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="3">
         <v>233</v>
       </c>
-      <c r="E139" s="5">
+      <c r="E139" s="3">
         <v>6</v>
       </c>
-      <c r="F139" s="5">
+      <c r="F139" s="3">
         <v>6</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="3">
         <v>57</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
+      <c r="A140" s="1">
         <v>44025</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="2">
         <v>139</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="3">
         <v>562</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="3">
         <v>111</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="3">
         <v>3</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="3">
         <v>3</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="3">
         <v>60</v>
       </c>
-      <c r="H140" s="5">
+      <c r="H140" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="3">
+      <c r="A141" s="1">
         <v>44026</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="2">
         <v>140</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="3">
         <v>554</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="3">
         <v>196</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141" s="3">
         <v>4</v>
       </c>
-      <c r="F141" s="5">
+      <c r="F141" s="3">
         <v>4</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141" s="3">
         <v>56</v>
       </c>
-      <c r="H141" s="5">
+      <c r="H141" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="3">
+      <c r="A142" s="1">
         <v>44027</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="2">
         <v>141</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="3">
         <v>548</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="3">
         <v>231</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="3">
         <v>5</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="3">
         <v>5</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142" s="3">
         <v>74</v>
       </c>
-      <c r="H142" s="5">
+      <c r="H142" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="3">
+      <c r="A143" s="1">
         <v>44028</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="2">
         <v>142</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="3">
         <v>545</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="3">
         <v>237</v>
       </c>
-      <c r="E143" s="5">
+      <c r="E143" s="3">
         <v>6</v>
       </c>
-      <c r="F143" s="5">
+      <c r="F143" s="3">
         <v>6</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143" s="3">
         <v>60</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
+      <c r="A144" s="1">
         <v>44029</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="2">
         <v>143</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="3">
         <v>534</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="3">
         <v>241</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="3">
         <v>7</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="3">
         <v>7</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144" s="3">
         <v>64</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="3">
+      <c r="A145" s="1">
         <v>44030</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="2">
         <v>144</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="3">
         <v>534</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="3">
         <v>235</v>
       </c>
-      <c r="E145" s="5">
+      <c r="E145" s="3">
         <v>6</v>
       </c>
-      <c r="F145" s="5">
+      <c r="F145" s="3">
         <v>6</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145" s="3">
         <v>61</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
+      <c r="A146" s="1">
         <v>44031</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="2">
         <v>145</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="3">
         <v>544</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="3">
         <v>264</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="3">
         <v>10</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="3">
         <v>9</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146" s="3">
         <v>53</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="3">
+      <c r="A147" s="1">
         <v>44032</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="2">
         <v>146</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="3">
         <v>424</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="3">
         <v>152</v>
       </c>
-      <c r="E147" s="5">
+      <c r="E147" s="3">
         <v>8</v>
       </c>
-      <c r="F147" s="5">
+      <c r="F147" s="3">
         <v>7</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="3">
         <v>36</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="3">
+      <c r="A148" s="1">
         <v>44033</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="2">
         <v>147</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="3">
         <v>431</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="3">
         <v>231</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="3">
         <v>6</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="3">
         <v>6</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="3">
         <v>39</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="3">
+      <c r="A149" s="1">
         <v>44034</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="2">
         <v>148</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="3">
         <v>400</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="3">
         <v>174</v>
       </c>
-      <c r="E149" s="5">
+      <c r="E149" s="3">
         <v>6</v>
       </c>
-      <c r="F149" s="5">
+      <c r="F149" s="3">
         <v>6</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="3">
         <v>32</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="3">
+      <c r="A150" s="1">
         <v>44035</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="2">
         <v>149</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="3">
         <v>414</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="3">
         <v>158</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="3">
         <v>5</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="3">
         <v>5</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="3">
         <v>26</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
+      <c r="A151" s="1">
         <v>44036</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="2">
         <v>150</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="3">
         <v>438</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="3">
         <v>174</v>
       </c>
-      <c r="E151" s="5">
+      <c r="E151" s="3">
         <v>6</v>
       </c>
-      <c r="F151" s="5">
+      <c r="F151" s="3">
         <v>6</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151" s="3">
         <v>35</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="3">
+      <c r="A152" s="1">
         <v>44037</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="2">
         <v>151</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="3">
         <v>394</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="3">
         <v>163</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="3">
         <v>4</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="3">
         <v>4</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152" s="3">
         <v>35</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="3">
+      <c r="A153" s="1">
         <v>44038</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="2">
         <v>152</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="3">
         <v>394</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="3">
         <v>245</v>
       </c>
-      <c r="E153" s="5">
+      <c r="E153" s="3">
         <v>6</v>
       </c>
-      <c r="F153" s="5">
+      <c r="F153" s="3">
         <v>6</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153" s="3">
         <v>27</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
+      <c r="A154" s="1">
         <v>44039</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="2">
         <v>153</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="3">
         <v>389</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="3">
         <v>205</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="3">
         <v>9</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="3">
         <v>8</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154" s="3">
         <v>40</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
+      <c r="A155" s="1">
         <v>44040</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="2">
         <v>154</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="3">
         <v>413</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="3">
         <v>199</v>
       </c>
-      <c r="E155" s="5">
+      <c r="E155" s="3">
         <v>8</v>
       </c>
-      <c r="F155" s="5">
+      <c r="F155" s="3">
         <v>7</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155" s="3">
         <v>36</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="3">
+      <c r="A156" s="1">
         <v>44041</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="2">
         <v>155</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="3">
         <v>389</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="3">
         <v>196</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="3">
         <v>8</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="3">
         <v>7</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156" s="3">
         <v>36</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="3">
+      <c r="A157" s="1">
         <v>44042</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="2">
         <v>156</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="3">
         <v>402</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="3">
         <v>199</v>
       </c>
-      <c r="E157" s="5">
+      <c r="E157" s="3">
         <v>8</v>
       </c>
-      <c r="F157" s="5">
+      <c r="F157" s="3">
         <v>7</v>
       </c>
-      <c r="G157" s="5">
+      <c r="G157" s="3">
         <v>32</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="3">
+      <c r="A158" s="1">
         <v>44043</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="2">
         <v>157</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="3">
         <v>398</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="3">
         <v>186</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="3">
         <v>7</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="3">
         <v>7</v>
       </c>
-      <c r="G158" s="5">
+      <c r="G158" s="3">
         <v>37</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="3">
+      <c r="A159" s="1">
         <v>44044</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="2">
         <v>158</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="3">
         <v>395</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="3">
         <v>244</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="3">
         <v>6</v>
       </c>
-      <c r="F159" s="5">
+      <c r="F159" s="3">
         <v>6</v>
       </c>
-      <c r="G159" s="5">
+      <c r="G159" s="3">
         <v>39</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
+      <c r="A160" s="1">
         <v>44045</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="2">
         <v>159</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="3">
         <v>425</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="3">
         <v>226</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="3">
         <v>2</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160" s="3">
         <v>3</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160" s="3">
         <v>34</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="3">
+      <c r="A161" s="1">
         <v>44046</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="2">
         <v>160</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="3">
         <v>388</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="3">
         <v>275</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="3">
         <v>3</v>
       </c>
-      <c r="F161" s="5">
+      <c r="F161" s="3">
         <v>3</v>
       </c>
-      <c r="G161" s="5">
+      <c r="G161" s="3">
         <v>35</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="3">
+      <c r="A162" s="1">
         <v>44047</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="2">
         <v>161</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="3">
         <v>362</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="3">
         <v>111</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="3">
         <v>2</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162" s="3">
         <v>2</v>
       </c>
-      <c r="G162" s="5">
+      <c r="G162" s="3">
         <v>29</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
+      <c r="A163" s="1">
         <v>44048</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="2">
         <v>162</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="3">
         <v>365</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="3">
         <v>106</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="3">
         <v>3</v>
       </c>
-      <c r="F163" s="5">
+      <c r="F163" s="3">
         <v>3</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G163" s="3">
         <v>30</v>
       </c>
-      <c r="H163" s="5">
+      <c r="H163" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
+      <c r="A164" s="1">
         <v>44049</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="2">
         <v>163</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="3">
         <v>374</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="3">
         <v>110</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="3">
         <v>4</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="3">
         <v>4</v>
       </c>
-      <c r="G164" s="5">
+      <c r="G164" s="3">
         <v>31</v>
       </c>
-      <c r="H164" s="5">
+      <c r="H164" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="3">
+      <c r="A165" s="1">
         <v>44050</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="2">
         <v>164</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="3">
         <v>388</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="3">
         <v>107</v>
       </c>
-      <c r="E165" s="5">
+      <c r="E165" s="3">
         <v>5</v>
       </c>
-      <c r="F165" s="5">
+      <c r="F165" s="3">
         <v>5</v>
       </c>
-      <c r="G165" s="5">
+      <c r="G165" s="3">
         <v>29</v>
       </c>
-      <c r="H165" s="5">
+      <c r="H165" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="3">
+      <c r="A166" s="1">
         <v>44051</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="2">
         <v>165</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="3">
         <v>365</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="3">
         <v>115</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="3">
         <v>6</v>
       </c>
-      <c r="F166" s="5">
+      <c r="F166" s="3">
         <v>6</v>
       </c>
-      <c r="G166" s="5">
+      <c r="G166" s="3">
         <v>28</v>
       </c>
-      <c r="H166" s="5">
+      <c r="H166" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
+      <c r="A167" s="1">
         <v>44052</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="2">
         <v>166</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="3">
         <v>419</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="3">
         <v>109</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="3">
         <v>3</v>
       </c>
-      <c r="F167" s="5">
+      <c r="F167" s="3">
         <v>3</v>
       </c>
-      <c r="G167" s="5">
+      <c r="G167" s="3">
         <v>43</v>
       </c>
-      <c r="H167" s="5">
+      <c r="H167" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
+      <c r="A168" s="1">
         <v>44053</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="2">
         <v>167</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="3">
         <v>444</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="3">
         <v>112</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="3">
         <v>4</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="3">
         <v>4</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G168" s="3">
         <v>51</v>
       </c>
-      <c r="H168" s="5">
+      <c r="H168" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="3">
+      <c r="A169" s="1">
         <v>44054</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="2">
         <v>168</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="3">
         <v>416</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="3">
         <v>130</v>
       </c>
-      <c r="E169" s="5">
+      <c r="E169" s="3">
         <v>6</v>
       </c>
-      <c r="F169" s="5">
+      <c r="F169" s="3">
         <v>6</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G169" s="3">
         <v>44</v>
       </c>
-      <c r="H169" s="5">
+      <c r="H169" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="3">
+      <c r="A170" s="1">
         <v>44055</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="2">
         <v>169</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="3">
         <v>399</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="3">
         <v>108</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="3">
         <v>5</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="3">
         <v>5</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170" s="3">
         <v>36</v>
       </c>
-      <c r="H170" s="5">
+      <c r="H170" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="3">
+      <c r="A171" s="1">
         <v>44056</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="2">
         <v>170</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="3">
         <v>437</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="3">
         <v>107</v>
       </c>
-      <c r="E171" s="5">
+      <c r="E171" s="3">
         <v>6</v>
       </c>
-      <c r="F171" s="5">
+      <c r="F171" s="3">
         <v>5</v>
       </c>
-      <c r="G171" s="5">
+      <c r="G171" s="3">
         <v>40</v>
       </c>
-      <c r="H171" s="5">
+      <c r="H171" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="3">
+      <c r="A172" s="1">
         <v>44057</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="2">
         <v>171</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="3">
         <v>420</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="3">
         <v>111</v>
       </c>
-      <c r="E172" s="5">
+      <c r="E172" s="3">
         <v>8</v>
       </c>
-      <c r="F172" s="5">
+      <c r="F172" s="3">
         <v>7</v>
       </c>
-      <c r="G172" s="5">
+      <c r="G172" s="3">
         <v>38</v>
       </c>
-      <c r="H172" s="5">
+      <c r="H172" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="3">
+      <c r="A173" s="1">
         <v>44058</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173" s="2">
         <v>172</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="3">
         <v>408</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="3">
         <v>101</v>
       </c>
-      <c r="E173" s="5">
+      <c r="E173" s="3">
         <v>4</v>
       </c>
-      <c r="F173" s="5">
+      <c r="F173" s="3">
         <v>4</v>
       </c>
-      <c r="G173" s="5">
+      <c r="G173" s="3">
         <v>42</v>
       </c>
-      <c r="H173" s="5">
+      <c r="H173" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A174" s="3">
+      <c r="A174" s="1">
         <v>44059</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="2">
         <v>173</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="3">
         <v>439</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="3">
         <v>109</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="3">
         <v>4</v>
       </c>
-      <c r="F174" s="5">
+      <c r="F174" s="3">
         <v>4</v>
       </c>
-      <c r="G174" s="5">
+      <c r="G174" s="3">
         <v>36</v>
       </c>
-      <c r="H174" s="5">
+      <c r="H174" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A175" s="3">
+      <c r="A175" s="1">
         <v>44060</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175" s="2">
         <v>174</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="3">
         <v>424</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="3">
         <v>105</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="3">
         <v>4</v>
       </c>
-      <c r="F175" s="5">
+      <c r="F175" s="3">
         <v>4</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G175" s="3">
         <v>42</v>
       </c>
-      <c r="H175" s="5">
+      <c r="H175" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="3">
+      <c r="A176" s="1">
         <v>44061</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="2">
         <v>175</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="3">
         <v>415</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="3">
         <v>111</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="3">
         <v>5</v>
       </c>
-      <c r="F176" s="5">
+      <c r="F176" s="3">
         <v>4</v>
       </c>
-      <c r="G176" s="5">
+      <c r="G176" s="3">
         <v>34</v>
       </c>
-      <c r="H176" s="5">
+      <c r="H176" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
+      <c r="A177" s="1">
         <v>44062</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177" s="2">
         <v>176</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="3">
         <v>420</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="3">
         <v>110</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="3">
         <v>8</v>
       </c>
-      <c r="F177" s="5">
+      <c r="F177" s="3">
         <v>8</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G177" s="3">
         <v>45</v>
       </c>
-      <c r="H177" s="5">
+      <c r="H177" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
+      <c r="A178" s="1">
         <v>44063</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="2">
         <v>177</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="3">
         <v>422</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="3">
         <v>111</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178" s="3">
         <v>6</v>
       </c>
-      <c r="F178" s="5">
+      <c r="F178" s="3">
         <v>6</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G178" s="3">
         <v>51</v>
       </c>
-      <c r="H178" s="5">
-        <v>20</v>
+      <c r="H178" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
+      <c r="A179" s="1">
         <v>44064</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179" s="2">
         <v>178</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="3">
         <v>344</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="3">
         <v>105</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179" s="3">
         <v>6</v>
       </c>
-      <c r="F179" s="5">
+      <c r="F179" s="3">
         <v>6</v>
       </c>
-      <c r="G179" s="5">
+      <c r="G179" s="3">
         <v>28</v>
       </c>
-      <c r="H179" s="5">
-        <v>21</v>
+      <c r="H179" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
+      <c r="A180" s="1">
         <v>44065</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="2">
         <v>179</v>
       </c>
-      <c r="C180" s="5">
-        <v>324</v>
-      </c>
-      <c r="D180" s="5">
-        <v>112</v>
-      </c>
-      <c r="E180" s="5">
+      <c r="C180" s="3">
+        <v>319</v>
+      </c>
+      <c r="D180" s="3">
+        <v>114</v>
+      </c>
+      <c r="E180" s="3">
         <v>8</v>
       </c>
-      <c r="F180" s="5">
-        <v>7</v>
-      </c>
-      <c r="G180" s="5">
+      <c r="F180" s="3">
+        <v>8</v>
+      </c>
+      <c r="G180" s="3">
         <v>29</v>
       </c>
-      <c r="H180" s="5">
-        <v>22</v>
+      <c r="H180" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC78C5-01CD-4F73-93FD-7A49D794F2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A237306-5CF9-4A99-A9B4-4A54E7D76FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8652" yWindow="288" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11952" yWindow="360" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -905,7 +905,7 @@
   <dimension ref="A1:H181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+      <selection activeCell="J178" sqref="J178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5595,8 +5595,30 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B181" s="2">
+        <v>180</v>
+      </c>
+      <c r="C181" s="3">
+        <v>341</v>
+      </c>
+      <c r="D181" s="3">
+        <v>115</v>
+      </c>
+      <c r="E181" s="3">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3">
+        <v>7</v>
+      </c>
+      <c r="G181" s="3">
+        <v>28</v>
+      </c>
+      <c r="H181" s="3">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A237306-5CF9-4A99-A9B4-4A54E7D76FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9E8B7-39CC-4F06-827C-2CE81A97FE81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11952" yWindow="360" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7092" yWindow="468" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5620,6 +5620,110 @@
         <v>16</v>
       </c>
     </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B182" s="2">
+        <v>181</v>
+      </c>
+      <c r="C182" s="3">
+        <v>384</v>
+      </c>
+      <c r="D182" s="3">
+        <v>111</v>
+      </c>
+      <c r="E182" s="3">
+        <v>6</v>
+      </c>
+      <c r="F182" s="3">
+        <v>6</v>
+      </c>
+      <c r="G182" s="3">
+        <v>29</v>
+      </c>
+      <c r="H182" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B183" s="2">
+        <v>182</v>
+      </c>
+      <c r="C183" s="3">
+        <v>381</v>
+      </c>
+      <c r="D183" s="3">
+        <v>110</v>
+      </c>
+      <c r="E183" s="3">
+        <v>5</v>
+      </c>
+      <c r="F183" s="3">
+        <v>5</v>
+      </c>
+      <c r="G183" s="3">
+        <v>25</v>
+      </c>
+      <c r="H183" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B184" s="2">
+        <v>183</v>
+      </c>
+      <c r="C184" s="3">
+        <v>352</v>
+      </c>
+      <c r="D184" s="3">
+        <v>98</v>
+      </c>
+      <c r="E184" s="3">
+        <v>4</v>
+      </c>
+      <c r="F184" s="3">
+        <v>4</v>
+      </c>
+      <c r="G184" s="3">
+        <v>24</v>
+      </c>
+      <c r="H184" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B185" s="2">
+        <v>184</v>
+      </c>
+      <c r="C185" s="3">
+        <v>329</v>
+      </c>
+      <c r="D185">
+        <v>101</v>
+      </c>
+      <c r="E185" s="3">
+        <v>4</v>
+      </c>
+      <c r="F185" s="3">
+        <v>4</v>
+      </c>
+      <c r="G185" s="3">
+        <v>27</v>
+      </c>
+      <c r="H185" s="3">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C9E8B7-39CC-4F06-827C-2CE81A97FE81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867A57C-3BF3-40DF-BE2D-F552EC9C7ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7092" yWindow="468" windowWidth="13152" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10524" yWindow="768" windowWidth="17424" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="H182" sqref="H182"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5706,10 +5706,10 @@
         <v>184</v>
       </c>
       <c r="C185" s="3">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D185">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E185" s="3">
         <v>4</v>
@@ -5721,7 +5721,85 @@
         <v>27</v>
       </c>
       <c r="H185" s="3">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B186" s="2">
+        <v>185</v>
+      </c>
+      <c r="C186" s="3">
+        <v>347</v>
+      </c>
+      <c r="D186" s="3">
+        <v>99</v>
+      </c>
+      <c r="E186" s="3">
+        <v>3</v>
+      </c>
+      <c r="F186" s="3">
+        <v>3</v>
+      </c>
+      <c r="G186" s="3">
+        <v>29</v>
+      </c>
+      <c r="H186" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B187" s="2">
+        <v>186</v>
+      </c>
+      <c r="C187" s="3">
+        <v>343</v>
+      </c>
+      <c r="D187" s="3">
+        <v>107</v>
+      </c>
+      <c r="E187" s="3">
+        <v>4</v>
+      </c>
+      <c r="F187" s="3">
+        <v>4</v>
+      </c>
+      <c r="G187" s="3">
+        <v>27</v>
+      </c>
+      <c r="H187" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B188" s="2">
+        <v>187</v>
+      </c>
+      <c r="C188" s="3">
+        <v>353</v>
+      </c>
+      <c r="D188" s="3">
+        <v>92</v>
+      </c>
+      <c r="E188" s="3">
+        <v>3</v>
+      </c>
+      <c r="F188" s="3">
+        <v>3</v>
+      </c>
+      <c r="G188" s="3">
+        <v>28</v>
+      </c>
+      <c r="H188" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867A57C-3BF3-40DF-BE2D-F552EC9C7ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045C17C-B773-447B-8132-CB8AC4F28E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10524" yWindow="768" windowWidth="17424" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="192" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H188" sqref="H188"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5784,7 +5784,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="3">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D188" s="3">
         <v>92</v>
@@ -5801,6 +5801,192 @@
       <c r="H188" s="3">
         <v>9</v>
       </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B189" s="2">
+        <v>188</v>
+      </c>
+      <c r="C189" s="3">
+        <v>367</v>
+      </c>
+      <c r="D189" s="3">
+        <v>118</v>
+      </c>
+      <c r="E189" s="3">
+        <v>5</v>
+      </c>
+      <c r="F189" s="3">
+        <v>5</v>
+      </c>
+      <c r="G189" s="3">
+        <v>22</v>
+      </c>
+      <c r="H189" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B190" s="2">
+        <v>189</v>
+      </c>
+      <c r="C190" s="3">
+        <v>358</v>
+      </c>
+      <c r="D190" s="3">
+        <v>117</v>
+      </c>
+      <c r="E190" s="3">
+        <v>3</v>
+      </c>
+      <c r="F190" s="3">
+        <v>3</v>
+      </c>
+      <c r="G190" s="3">
+        <v>26</v>
+      </c>
+      <c r="H190" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B191" s="2">
+        <v>190</v>
+      </c>
+      <c r="C191" s="3">
+        <v>336</v>
+      </c>
+      <c r="D191" s="3">
+        <v>110</v>
+      </c>
+      <c r="E191" s="3">
+        <v>5</v>
+      </c>
+      <c r="F191" s="3">
+        <v>5</v>
+      </c>
+      <c r="G191" s="3">
+        <v>31</v>
+      </c>
+      <c r="H191" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B192" s="2">
+        <v>191</v>
+      </c>
+      <c r="C192" s="3">
+        <v>359</v>
+      </c>
+      <c r="D192" s="3">
+        <v>97</v>
+      </c>
+      <c r="E192" s="3">
+        <v>7</v>
+      </c>
+      <c r="F192" s="3">
+        <v>6</v>
+      </c>
+      <c r="G192" s="3">
+        <v>31</v>
+      </c>
+      <c r="H192" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B193" s="2">
+        <v>192</v>
+      </c>
+      <c r="C193" s="3">
+        <v>344</v>
+      </c>
+      <c r="D193" s="3">
+        <v>107</v>
+      </c>
+      <c r="E193" s="3">
+        <v>6</v>
+      </c>
+      <c r="F193" s="3">
+        <v>5</v>
+      </c>
+      <c r="G193" s="3">
+        <v>28</v>
+      </c>
+      <c r="H193" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B194" s="2">
+        <v>193</v>
+      </c>
+      <c r="C194" s="3">
+        <v>349</v>
+      </c>
+      <c r="D194" s="3">
+        <v>103</v>
+      </c>
+      <c r="E194" s="3">
+        <v>5</v>
+      </c>
+      <c r="F194" s="3">
+        <v>5</v>
+      </c>
+      <c r="G194" s="3">
+        <v>31</v>
+      </c>
+      <c r="H194" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B195" s="2">
+        <v>194</v>
+      </c>
+      <c r="C195" s="3">
+        <v>372</v>
+      </c>
+      <c r="D195" s="3">
+        <v>109</v>
+      </c>
+      <c r="E195" s="3">
+        <v>6</v>
+      </c>
+      <c r="F195" s="3">
+        <v>6</v>
+      </c>
+      <c r="G195" s="3">
+        <v>29</v>
+      </c>
+      <c r="H195" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+      <c r="B196" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045C17C-B773-447B-8132-CB8AC4F28E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D94593-CC0B-4EA0-8D83-1D44564C1CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="192" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12804" yWindow="444" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5985,8 +5985,480 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B196" s="2">
+        <v>195</v>
+      </c>
+      <c r="C196" s="3">
+        <v>333</v>
+      </c>
+      <c r="D196" s="3">
+        <v>115</v>
+      </c>
+      <c r="E196" s="3">
+        <v>6</v>
+      </c>
+      <c r="F196" s="3">
+        <v>6</v>
+      </c>
+      <c r="G196" s="3">
+        <v>28</v>
+      </c>
+      <c r="H196" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B197" s="2">
+        <v>196</v>
+      </c>
+      <c r="C197" s="3">
+        <v>333</v>
+      </c>
+      <c r="D197" s="3">
+        <v>109</v>
+      </c>
+      <c r="E197" s="3">
+        <v>7</v>
+      </c>
+      <c r="F197" s="3">
+        <v>6</v>
+      </c>
+      <c r="G197" s="3">
+        <v>28</v>
+      </c>
+      <c r="H197" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B198" s="2">
+        <v>197</v>
+      </c>
+      <c r="C198" s="3">
+        <v>346</v>
+      </c>
+      <c r="D198" s="3">
+        <v>119</v>
+      </c>
+      <c r="E198" s="3">
+        <v>5</v>
+      </c>
+      <c r="F198" s="3">
+        <v>5</v>
+      </c>
+      <c r="G198" s="3">
+        <v>26</v>
+      </c>
+      <c r="H198" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B199" s="2">
+        <v>198</v>
+      </c>
+      <c r="C199" s="3">
+        <v>367</v>
+      </c>
+      <c r="D199" s="3">
+        <v>122</v>
+      </c>
+      <c r="E199" s="3">
+        <v>9</v>
+      </c>
+      <c r="F199" s="3">
+        <v>9</v>
+      </c>
+      <c r="G199" s="3">
+        <v>22</v>
+      </c>
+      <c r="H199" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B200" s="2">
+        <v>199</v>
+      </c>
+      <c r="C200" s="3">
+        <v>343</v>
+      </c>
+      <c r="D200" s="3">
+        <v>109</v>
+      </c>
+      <c r="E200" s="3">
+        <v>6</v>
+      </c>
+      <c r="F200" s="3">
+        <v>6</v>
+      </c>
+      <c r="G200" s="3">
+        <v>24</v>
+      </c>
+      <c r="H200" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B201" s="2">
+        <v>200</v>
+      </c>
+      <c r="C201" s="3">
+        <v>358</v>
+      </c>
+      <c r="D201" s="3">
+        <v>115</v>
+      </c>
+      <c r="E201" s="3">
+        <v>4</v>
+      </c>
+      <c r="F201" s="3">
+        <v>4</v>
+      </c>
+      <c r="G201" s="3">
+        <v>34</v>
+      </c>
+      <c r="H201" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B202" s="2">
+        <v>201</v>
+      </c>
+      <c r="C202" s="3">
+        <v>331</v>
+      </c>
+      <c r="D202" s="3">
+        <v>112</v>
+      </c>
+      <c r="E202" s="3">
+        <v>7</v>
+      </c>
+      <c r="F202" s="3">
+        <v>6</v>
+      </c>
+      <c r="G202" s="3">
+        <v>29</v>
+      </c>
+      <c r="H202" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B203" s="2">
+        <v>202</v>
+      </c>
+      <c r="C203" s="3">
+        <v>330</v>
+      </c>
+      <c r="D203" s="3">
+        <v>111</v>
+      </c>
+      <c r="E203" s="3">
+        <v>8</v>
+      </c>
+      <c r="F203" s="3">
+        <v>7</v>
+      </c>
+      <c r="G203" s="3">
+        <v>31</v>
+      </c>
+      <c r="H203" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B204" s="2">
+        <v>203</v>
+      </c>
+      <c r="C204" s="3">
+        <v>389</v>
+      </c>
+      <c r="D204" s="3">
+        <v>344</v>
+      </c>
+      <c r="E204" s="3">
+        <v>4</v>
+      </c>
+      <c r="F204" s="3">
+        <v>4</v>
+      </c>
+      <c r="G204" s="3">
+        <v>32</v>
+      </c>
+      <c r="H204" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B205" s="2">
+        <v>204</v>
+      </c>
+      <c r="C205" s="3">
+        <v>401</v>
+      </c>
+      <c r="D205" s="3">
+        <v>289</v>
+      </c>
+      <c r="E205" s="3">
+        <v>5</v>
+      </c>
+      <c r="F205" s="3">
+        <v>5</v>
+      </c>
+      <c r="G205" s="3">
+        <v>36</v>
+      </c>
+      <c r="H205" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B206" s="2">
+        <v>205</v>
+      </c>
+      <c r="C206" s="3">
+        <v>425</v>
+      </c>
+      <c r="D206" s="3">
+        <v>283</v>
+      </c>
+      <c r="E206" s="3">
+        <v>9</v>
+      </c>
+      <c r="F206" s="3">
+        <v>9</v>
+      </c>
+      <c r="G206" s="3">
+        <v>31</v>
+      </c>
+      <c r="H206" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B207" s="2">
+        <v>206</v>
+      </c>
+      <c r="C207" s="3">
+        <v>373</v>
+      </c>
+      <c r="D207" s="3">
+        <v>169</v>
+      </c>
+      <c r="E207" s="3">
+        <v>4</v>
+      </c>
+      <c r="F207" s="3">
+        <v>4</v>
+      </c>
+      <c r="G207" s="3">
+        <v>22</v>
+      </c>
+      <c r="H207" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B208" s="2">
+        <v>207</v>
+      </c>
+      <c r="C208" s="3">
+        <v>391</v>
+      </c>
+      <c r="D208" s="3">
+        <v>136</v>
+      </c>
+      <c r="E208" s="3">
+        <v>4</v>
+      </c>
+      <c r="F208" s="3">
+        <v>4</v>
+      </c>
+      <c r="G208" s="3">
+        <v>28</v>
+      </c>
+      <c r="H208" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B209" s="2">
+        <v>208</v>
+      </c>
+      <c r="C209" s="3">
+        <v>390</v>
+      </c>
+      <c r="D209" s="3">
+        <v>189</v>
+      </c>
+      <c r="E209" s="3">
+        <v>5</v>
+      </c>
+      <c r="F209" s="3">
+        <v>5</v>
+      </c>
+      <c r="G209" s="3">
+        <v>27</v>
+      </c>
+      <c r="H209" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B210" s="2">
+        <v>209</v>
+      </c>
+      <c r="C210" s="3">
+        <v>467</v>
+      </c>
+      <c r="D210" s="3">
+        <v>252</v>
+      </c>
+      <c r="E210" s="3">
+        <v>4</v>
+      </c>
+      <c r="F210" s="3">
+        <v>4</v>
+      </c>
+      <c r="G210" s="3">
+        <v>35</v>
+      </c>
+      <c r="H210" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B211" s="2">
+        <v>210</v>
+      </c>
+      <c r="C211" s="3">
+        <v>451</v>
+      </c>
+      <c r="D211" s="3">
+        <v>253</v>
+      </c>
+      <c r="E211" s="3">
+        <v>4</v>
+      </c>
+      <c r="F211" s="3">
+        <v>4</v>
+      </c>
+      <c r="G211" s="3">
+        <v>31</v>
+      </c>
+      <c r="H211" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B212" s="2">
+        <v>211</v>
+      </c>
+      <c r="C212" s="3">
+        <v>449</v>
+      </c>
+      <c r="D212" s="3">
+        <v>272</v>
+      </c>
+      <c r="E212" s="3">
+        <v>4</v>
+      </c>
+      <c r="F212" s="3">
+        <v>4</v>
+      </c>
+      <c r="G212" s="3">
+        <v>29</v>
+      </c>
+      <c r="H212" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B213" s="2">
+        <v>212</v>
+      </c>
+      <c r="C213" s="3">
+        <v>469</v>
+      </c>
+      <c r="D213" s="3">
+        <v>275</v>
+      </c>
+      <c r="E213" s="3">
+        <v>9</v>
+      </c>
+      <c r="F213" s="3">
+        <v>8</v>
+      </c>
+      <c r="G213" s="3">
+        <v>30</v>
+      </c>
+      <c r="H213" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="1"/>
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Database/Kato/aerlive_data.xlsx
+++ b/Database/Kato/aerlive_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D94593-CC0B-4EA0-8D83-1D44564C1CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91BFC86-591A-448F-A0CC-788CB6B3E3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12804" yWindow="444" windowWidth="10152" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="312" yWindow="180" windowWidth="12768" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H215"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6453,12 +6453,82 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="1"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B214" s="2">
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <v>396</v>
+      </c>
+      <c r="D214">
+        <v>235</v>
+      </c>
+      <c r="E214">
+        <v>11</v>
+      </c>
+      <c r="F214">
+        <v>10</v>
+      </c>
+      <c r="G214">
+        <v>28</v>
+      </c>
+      <c r="H214">
+        <v>25</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B215" s="2">
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <v>371</v>
+      </c>
+      <c r="D215">
+        <v>170</v>
+      </c>
+      <c r="E215">
+        <v>9</v>
+      </c>
+      <c r="F215">
+        <v>8</v>
+      </c>
+      <c r="G215">
+        <v>25</v>
+      </c>
+      <c r="H215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B216" s="2">
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <v>411</v>
+      </c>
+      <c r="D216">
+        <v>182</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="G216">
+        <v>19</v>
+      </c>
+      <c r="H216">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
